--- a/postulaciones_actualizado.xlsx
+++ b/postulaciones_actualizado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ossma\Desktop\EnvioAuto_DL\GenExcel_DL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ossma\Desktop\GenExcel_DL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB04C5C-DC3E-4ABA-919F-0B5B119BCE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D1D495-1ACF-4612-9DCA-CE7F4B0F99AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inmersiones" sheetId="1" r:id="rId1"/>
@@ -8068,25 +8068,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N142"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="41.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="41.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.5703125" style="15"/>
-    <col min="3" max="3" width="47.85546875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" style="15" customWidth="1"/>
+    <col min="1" max="2" width="11.5546875" style="15"/>
+    <col min="3" max="3" width="47.88671875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" style="15" customWidth="1"/>
     <col min="7" max="7" width="23" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="15"/>
-    <col min="10" max="10" width="8.7109375" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="11.5703125" style="15"/>
+    <col min="8" max="8" width="26.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="15"/>
+    <col min="10" max="10" width="8.6640625" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="11.5546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
@@ -8167,7 +8167,7 @@
       </c>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>27</v>
       </c>
@@ -8207,7 +8207,7 @@
       </c>
       <c r="N3" s="18"/>
     </row>
-    <row r="4" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>40</v>
       </c>
@@ -8247,7 +8247,7 @@
       </c>
       <c r="N4" s="18"/>
     </row>
-    <row r="5" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>52</v>
       </c>
@@ -8287,7 +8287,7 @@
       </c>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>65</v>
       </c>
@@ -8327,7 +8327,7 @@
       </c>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>74</v>
       </c>
@@ -8367,7 +8367,7 @@
       </c>
       <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>87</v>
       </c>
@@ -8407,7 +8407,7 @@
       </c>
       <c r="N8" s="18"/>
     </row>
-    <row r="9" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>98</v>
       </c>
@@ -8447,7 +8447,7 @@
       </c>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>109</v>
       </c>
@@ -8487,7 +8487,7 @@
       </c>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>118</v>
       </c>
@@ -8527,7 +8527,7 @@
       </c>
       <c r="N11" s="18"/>
     </row>
-    <row r="12" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>127</v>
       </c>
@@ -8567,7 +8567,7 @@
       </c>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>136</v>
       </c>
@@ -8607,7 +8607,7 @@
       </c>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>145</v>
       </c>
@@ -8647,7 +8647,7 @@
       </c>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>155</v>
       </c>
@@ -8687,7 +8687,7 @@
       </c>
       <c r="N15" s="18"/>
     </row>
-    <row r="16" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>164</v>
       </c>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="N16" s="18"/>
     </row>
-    <row r="17" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>173</v>
       </c>
@@ -8767,7 +8767,7 @@
       </c>
       <c r="N17" s="18"/>
     </row>
-    <row r="18" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>185</v>
       </c>
@@ -8807,7 +8807,7 @@
       </c>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>194</v>
       </c>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="N19" s="18"/>
     </row>
-    <row r="20" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>203</v>
       </c>
@@ -8887,7 +8887,7 @@
       </c>
       <c r="N20" s="18"/>
     </row>
-    <row r="21" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>212</v>
       </c>
@@ -8927,7 +8927,7 @@
       </c>
       <c r="N21" s="18"/>
     </row>
-    <row r="22" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>223</v>
       </c>
@@ -8967,7 +8967,7 @@
       </c>
       <c r="N22" s="18"/>
     </row>
-    <row r="23" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>232</v>
       </c>
@@ -9007,7 +9007,7 @@
       </c>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>241</v>
       </c>
@@ -9047,7 +9047,7 @@
       </c>
       <c r="N24" s="18"/>
     </row>
-    <row r="25" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>248</v>
       </c>
@@ -9087,7 +9087,7 @@
       </c>
       <c r="N25" s="18"/>
     </row>
-    <row r="26" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>259</v>
       </c>
@@ -9127,7 +9127,7 @@
       </c>
       <c r="N26" s="18"/>
     </row>
-    <row r="27" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>269</v>
       </c>
@@ -9167,7 +9167,7 @@
       </c>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>276</v>
       </c>
@@ -9207,7 +9207,7 @@
       </c>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>284</v>
       </c>
@@ -9247,7 +9247,7 @@
       </c>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>292</v>
       </c>
@@ -9287,7 +9287,7 @@
       </c>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>299</v>
       </c>
@@ -9327,7 +9327,7 @@
       </c>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>306</v>
       </c>
@@ -9367,7 +9367,7 @@
       </c>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>315</v>
       </c>
@@ -9407,7 +9407,7 @@
       </c>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>325</v>
       </c>
@@ -9447,7 +9447,7 @@
       </c>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>334</v>
       </c>
@@ -9487,7 +9487,7 @@
       </c>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>341</v>
       </c>
@@ -9527,7 +9527,7 @@
       </c>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>348</v>
       </c>
@@ -9567,7 +9567,7 @@
       </c>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>357</v>
       </c>
@@ -9607,7 +9607,7 @@
       </c>
       <c r="N38" s="18"/>
     </row>
-    <row r="39" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>364</v>
       </c>
@@ -9647,7 +9647,7 @@
       </c>
       <c r="N39" s="18"/>
     </row>
-    <row r="40" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>373</v>
       </c>
@@ -9687,7 +9687,7 @@
       </c>
       <c r="N40" s="18"/>
     </row>
-    <row r="41" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>381</v>
       </c>
@@ -9727,7 +9727,7 @@
       </c>
       <c r="N41" s="18"/>
     </row>
-    <row r="42" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>389</v>
       </c>
@@ -9767,7 +9767,7 @@
       </c>
       <c r="N42" s="18"/>
     </row>
-    <row r="43" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>397</v>
       </c>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="N43" s="18"/>
     </row>
-    <row r="44" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>402</v>
       </c>
@@ -9847,7 +9847,7 @@
       </c>
       <c r="N44" s="18"/>
     </row>
-    <row r="45" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>408</v>
       </c>
@@ -9887,7 +9887,7 @@
       </c>
       <c r="N45" s="18"/>
     </row>
-    <row r="46" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
         <v>415</v>
       </c>
@@ -9927,7 +9927,7 @@
       </c>
       <c r="N46" s="18"/>
     </row>
-    <row r="47" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
         <v>422</v>
       </c>
@@ -9967,7 +9967,7 @@
       </c>
       <c r="N47" s="18"/>
     </row>
-    <row r="48" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>431</v>
       </c>
@@ -10007,7 +10007,7 @@
       </c>
       <c r="N48" s="18"/>
     </row>
-    <row r="49" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
         <v>438</v>
       </c>
@@ -10047,7 +10047,7 @@
       </c>
       <c r="N49" s="18"/>
     </row>
-    <row r="50" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
         <v>446</v>
       </c>
@@ -10087,7 +10087,7 @@
       </c>
       <c r="N50" s="18"/>
     </row>
-    <row r="51" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
         <v>454</v>
       </c>
@@ -10127,7 +10127,7 @@
       </c>
       <c r="N51" s="18"/>
     </row>
-    <row r="52" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
         <v>461</v>
       </c>
@@ -10167,7 +10167,7 @@
       </c>
       <c r="N52" s="18"/>
     </row>
-    <row r="53" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
         <v>468</v>
       </c>
@@ -10207,7 +10207,7 @@
       </c>
       <c r="N53" s="18"/>
     </row>
-    <row r="54" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
         <v>475</v>
       </c>
@@ -10247,7 +10247,7 @@
       </c>
       <c r="N54" s="18"/>
     </row>
-    <row r="55" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
         <v>481</v>
       </c>
@@ -10289,7 +10289,7 @@
       </c>
       <c r="N55" s="18"/>
     </row>
-    <row r="56" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
         <v>488</v>
       </c>
@@ -10329,7 +10329,7 @@
       </c>
       <c r="N56" s="18"/>
     </row>
-    <row r="57" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
         <v>495</v>
       </c>
@@ -10369,7 +10369,7 @@
       </c>
       <c r="N57" s="18"/>
     </row>
-    <row r="58" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
         <v>501</v>
       </c>
@@ -10409,7 +10409,7 @@
       </c>
       <c r="N58" s="18"/>
     </row>
-    <row r="59" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16" t="s">
         <v>510</v>
       </c>
@@ -10449,7 +10449,7 @@
       </c>
       <c r="N59" s="18"/>
     </row>
-    <row r="60" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16" t="s">
         <v>517</v>
       </c>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="N60" s="18"/>
     </row>
-    <row r="61" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="16" t="s">
         <v>524</v>
       </c>
@@ -10529,7 +10529,7 @@
       </c>
       <c r="N61" s="18"/>
     </row>
-    <row r="62" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
         <v>531</v>
       </c>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="N62" s="18"/>
     </row>
-    <row r="63" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
         <v>537</v>
       </c>
@@ -10609,7 +10609,7 @@
       </c>
       <c r="N63" s="18"/>
     </row>
-    <row r="64" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
         <v>546</v>
       </c>
@@ -10649,7 +10649,7 @@
       </c>
       <c r="N64" s="18"/>
     </row>
-    <row r="65" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
         <v>553</v>
       </c>
@@ -10689,7 +10689,7 @@
       </c>
       <c r="N65" s="18"/>
     </row>
-    <row r="66" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16" t="s">
         <v>560</v>
       </c>
@@ -10729,7 +10729,7 @@
       </c>
       <c r="N66" s="18"/>
     </row>
-    <row r="67" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
         <v>566</v>
       </c>
@@ -10769,7 +10769,7 @@
       </c>
       <c r="N67" s="18"/>
     </row>
-    <row r="68" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="16" t="s">
         <v>573</v>
       </c>
@@ -10811,7 +10811,7 @@
       </c>
       <c r="N68" s="18"/>
     </row>
-    <row r="69" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="16" t="s">
         <v>580</v>
       </c>
@@ -10851,7 +10851,7 @@
       </c>
       <c r="N69" s="18"/>
     </row>
-    <row r="70" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="16" t="s">
         <v>587</v>
       </c>
@@ -10891,7 +10891,7 @@
       </c>
       <c r="N70" s="18"/>
     </row>
-    <row r="71" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="16" t="s">
         <v>593</v>
       </c>
@@ -10931,7 +10931,7 @@
       </c>
       <c r="N71" s="18"/>
     </row>
-    <row r="72" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="16" t="s">
         <v>600</v>
       </c>
@@ -10971,7 +10971,7 @@
       </c>
       <c r="N72" s="18"/>
     </row>
-    <row r="73" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="16" t="s">
         <v>608</v>
       </c>
@@ -11011,7 +11011,7 @@
       </c>
       <c r="N73" s="18"/>
     </row>
-    <row r="74" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="16" t="s">
         <v>616</v>
       </c>
@@ -11051,7 +11051,7 @@
       </c>
       <c r="N74" s="18"/>
     </row>
-    <row r="75" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="16" t="s">
         <v>623</v>
       </c>
@@ -11091,7 +11091,7 @@
       </c>
       <c r="N75" s="18"/>
     </row>
-    <row r="76" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="16" t="s">
         <v>629</v>
       </c>
@@ -11131,7 +11131,7 @@
       </c>
       <c r="N76" s="18"/>
     </row>
-    <row r="77" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="16" t="s">
         <v>635</v>
       </c>
@@ -11171,7 +11171,7 @@
       </c>
       <c r="N77" s="18"/>
     </row>
-    <row r="78" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="16" t="s">
         <v>641</v>
       </c>
@@ -11211,7 +11211,7 @@
       </c>
       <c r="N78" s="18"/>
     </row>
-    <row r="79" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="16" t="s">
         <v>648</v>
       </c>
@@ -11251,7 +11251,7 @@
       </c>
       <c r="N79" s="18"/>
     </row>
-    <row r="80" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="16" t="s">
         <v>655</v>
       </c>
@@ -11293,7 +11293,7 @@
       </c>
       <c r="N80" s="18"/>
     </row>
-    <row r="81" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="16" t="s">
         <v>664</v>
       </c>
@@ -11333,7 +11333,7 @@
       </c>
       <c r="N81" s="18"/>
     </row>
-    <row r="82" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="16" t="s">
         <v>671</v>
       </c>
@@ -11373,7 +11373,7 @@
       </c>
       <c r="N82" s="18"/>
     </row>
-    <row r="83" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="16" t="s">
         <v>676</v>
       </c>
@@ -11413,7 +11413,7 @@
       </c>
       <c r="N83" s="18"/>
     </row>
-    <row r="84" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="16" t="s">
         <v>684</v>
       </c>
@@ -11453,7 +11453,7 @@
       </c>
       <c r="N84" s="18"/>
     </row>
-    <row r="85" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="16" t="s">
         <v>690</v>
       </c>
@@ -11495,7 +11495,7 @@
       </c>
       <c r="N85" s="18"/>
     </row>
-    <row r="86" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="16" t="s">
         <v>698</v>
       </c>
@@ -11535,7 +11535,7 @@
       </c>
       <c r="N86" s="18"/>
     </row>
-    <row r="87" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="16" t="s">
         <v>704</v>
       </c>
@@ -11575,7 +11575,7 @@
       </c>
       <c r="N87" s="18"/>
     </row>
-    <row r="88" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="16" t="s">
         <v>711</v>
       </c>
@@ -11615,7 +11615,7 @@
       </c>
       <c r="N88" s="18"/>
     </row>
-    <row r="89" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="16" t="s">
         <v>719</v>
       </c>
@@ -11655,7 +11655,7 @@
       </c>
       <c r="N89" s="18"/>
     </row>
-    <row r="90" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="16" t="s">
         <v>726</v>
       </c>
@@ -11695,7 +11695,7 @@
       </c>
       <c r="N90" s="18"/>
     </row>
-    <row r="91" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="16" t="s">
         <v>733</v>
       </c>
@@ -11735,7 +11735,7 @@
       </c>
       <c r="N91" s="18"/>
     </row>
-    <row r="92" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="16" t="s">
         <v>739</v>
       </c>
@@ -11775,7 +11775,7 @@
       </c>
       <c r="N92" s="18"/>
     </row>
-    <row r="93" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="16" t="s">
         <v>745</v>
       </c>
@@ -11815,7 +11815,7 @@
       </c>
       <c r="N93" s="18"/>
     </row>
-    <row r="94" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="16" t="s">
         <v>753</v>
       </c>
@@ -11855,7 +11855,7 @@
       </c>
       <c r="N94" s="18"/>
     </row>
-    <row r="95" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="16" t="s">
         <v>759</v>
       </c>
@@ -11895,7 +11895,7 @@
       </c>
       <c r="N95" s="18"/>
     </row>
-    <row r="96" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="16" t="s">
         <v>766</v>
       </c>
@@ -11935,7 +11935,7 @@
       </c>
       <c r="N96" s="18"/>
     </row>
-    <row r="97" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="16" t="s">
         <v>772</v>
       </c>
@@ -11975,7 +11975,7 @@
       </c>
       <c r="N97" s="18"/>
     </row>
-    <row r="98" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="16" t="s">
         <v>779</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="16" t="s">
         <v>784</v>
       </c>
@@ -12052,7 +12052,7 @@
       </c>
       <c r="N99" s="18"/>
     </row>
-    <row r="100" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="16" t="s">
         <v>792</v>
       </c>
@@ -12092,7 +12092,7 @@
       </c>
       <c r="N100" s="18"/>
     </row>
-    <row r="101" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="16" t="s">
         <v>799</v>
       </c>
@@ -12132,7 +12132,7 @@
       </c>
       <c r="N101" s="18"/>
     </row>
-    <row r="102" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="16" t="s">
         <v>806</v>
       </c>
@@ -12172,7 +12172,7 @@
       </c>
       <c r="N102" s="18"/>
     </row>
-    <row r="103" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="16" t="s">
         <v>812</v>
       </c>
@@ -12212,7 +12212,7 @@
       </c>
       <c r="N103" s="18"/>
     </row>
-    <row r="104" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="16" t="s">
         <v>818</v>
       </c>
@@ -12252,7 +12252,7 @@
       </c>
       <c r="N104" s="18"/>
     </row>
-    <row r="105" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="16" t="s">
         <v>825</v>
       </c>
@@ -12292,7 +12292,7 @@
       </c>
       <c r="N105" s="18"/>
     </row>
-    <row r="106" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="16" t="s">
         <v>831</v>
       </c>
@@ -12334,7 +12334,7 @@
       </c>
       <c r="N106" s="18"/>
     </row>
-    <row r="107" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="16" t="s">
         <v>839</v>
       </c>
@@ -12374,7 +12374,7 @@
       </c>
       <c r="N107" s="18"/>
     </row>
-    <row r="108" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="16" t="s">
         <v>847</v>
       </c>
@@ -12414,7 +12414,7 @@
       </c>
       <c r="N108" s="18"/>
     </row>
-    <row r="109" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="16" t="s">
         <v>854</v>
       </c>
@@ -12456,7 +12456,7 @@
       </c>
       <c r="N109" s="18"/>
     </row>
-    <row r="110" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="16" t="s">
         <v>862</v>
       </c>
@@ -12496,7 +12496,7 @@
       </c>
       <c r="N110" s="18"/>
     </row>
-    <row r="111" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="16" t="s">
         <v>871</v>
       </c>
@@ -12536,7 +12536,7 @@
       </c>
       <c r="N111" s="18"/>
     </row>
-    <row r="112" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="16" t="s">
         <v>877</v>
       </c>
@@ -12576,7 +12576,7 @@
       </c>
       <c r="N112" s="18"/>
     </row>
-    <row r="113" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="16" t="s">
         <v>883</v>
       </c>
@@ -12616,7 +12616,7 @@
       </c>
       <c r="N113" s="18"/>
     </row>
-    <row r="114" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="16" t="s">
         <v>889</v>
       </c>
@@ -12656,7 +12656,7 @@
       </c>
       <c r="N114" s="18"/>
     </row>
-    <row r="115" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="16" t="s">
         <v>896</v>
       </c>
@@ -12696,7 +12696,7 @@
       </c>
       <c r="N115" s="18"/>
     </row>
-    <row r="116" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="16" t="s">
         <v>902</v>
       </c>
@@ -12736,7 +12736,7 @@
       </c>
       <c r="N116" s="18"/>
     </row>
-    <row r="117" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="16" t="s">
         <v>910</v>
       </c>
@@ -12776,7 +12776,7 @@
       </c>
       <c r="N117" s="18"/>
     </row>
-    <row r="118" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="16" t="s">
         <v>919</v>
       </c>
@@ -12816,7 +12816,7 @@
       </c>
       <c r="N118" s="18"/>
     </row>
-    <row r="119" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="16" t="s">
         <v>925</v>
       </c>
@@ -12856,7 +12856,7 @@
       </c>
       <c r="N119" s="18"/>
     </row>
-    <row r="120" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="16" t="s">
         <v>932</v>
       </c>
@@ -12896,7 +12896,7 @@
       </c>
       <c r="N120" s="18"/>
     </row>
-    <row r="121" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="16" t="s">
         <v>939</v>
       </c>
@@ -12936,7 +12936,7 @@
       </c>
       <c r="N121" s="18"/>
     </row>
-    <row r="122" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="16" t="s">
         <v>945</v>
       </c>
@@ -12976,7 +12976,7 @@
       </c>
       <c r="N122" s="18"/>
     </row>
-    <row r="123" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="16" t="s">
         <v>952</v>
       </c>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="N123" s="18"/>
     </row>
-    <row r="124" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="16" t="s">
         <v>959</v>
       </c>
@@ -13056,7 +13056,7 @@
       </c>
       <c r="N124" s="18"/>
     </row>
-    <row r="125" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="16" t="s">
         <v>967</v>
       </c>
@@ -13096,7 +13096,7 @@
       </c>
       <c r="N125" s="18"/>
     </row>
-    <row r="126" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="16" t="s">
         <v>973</v>
       </c>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="N126" s="18"/>
     </row>
-    <row r="127" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="16" t="s">
         <v>981</v>
       </c>
@@ -13178,7 +13178,7 @@
       </c>
       <c r="N127" s="18"/>
     </row>
-    <row r="128" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="16" t="s">
         <v>988</v>
       </c>
@@ -13218,7 +13218,7 @@
       </c>
       <c r="N128" s="18"/>
     </row>
-    <row r="129" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="16" t="s">
         <v>995</v>
       </c>
@@ -13258,7 +13258,7 @@
       </c>
       <c r="N129" s="18"/>
     </row>
-    <row r="130" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="16" t="s">
         <v>1002</v>
       </c>
@@ -13298,7 +13298,7 @@
       </c>
       <c r="N130" s="18"/>
     </row>
-    <row r="131" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="16" t="s">
         <v>1009</v>
       </c>
@@ -13338,7 +13338,7 @@
       </c>
       <c r="N131" s="18"/>
     </row>
-    <row r="132" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="16" t="s">
         <v>1015</v>
       </c>
@@ -13378,7 +13378,7 @@
       </c>
       <c r="N132" s="18"/>
     </row>
-    <row r="133" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="16" t="s">
         <v>1021</v>
       </c>
@@ -13418,7 +13418,7 @@
       </c>
       <c r="N133" s="18"/>
     </row>
-    <row r="134" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="16" t="s">
         <v>1027</v>
       </c>
@@ -13456,7 +13456,7 @@
       </c>
       <c r="N134" s="18"/>
     </row>
-    <row r="135" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="16" t="s">
         <v>1033</v>
       </c>
@@ -13496,7 +13496,7 @@
       </c>
       <c r="N135" s="18"/>
     </row>
-    <row r="136" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="16" t="s">
         <v>1039</v>
       </c>
@@ -13536,7 +13536,7 @@
       </c>
       <c r="N136" s="18"/>
     </row>
-    <row r="137" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="16" t="s">
         <v>1045</v>
       </c>
@@ -13576,7 +13576,7 @@
       </c>
       <c r="N137" s="18"/>
     </row>
-    <row r="138" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="16" t="s">
         <v>1050</v>
       </c>
@@ -13616,7 +13616,7 @@
       </c>
       <c r="N138" s="18"/>
     </row>
-    <row r="139" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="16" t="s">
         <v>1056</v>
       </c>
@@ -13656,7 +13656,7 @@
       </c>
       <c r="N139" s="18"/>
     </row>
-    <row r="140" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="18"/>
       <c r="B140" s="18"/>
       <c r="C140" s="18"/>
@@ -13672,7 +13672,7 @@
       <c r="M140" s="18"/>
       <c r="N140" s="18"/>
     </row>
-    <row r="141" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="18"/>
       <c r="B141" s="18"/>
       <c r="C141" s="18"/>
@@ -13688,7 +13688,7 @@
       <c r="M141" s="18"/>
       <c r="N141" s="18"/>
     </row>
-    <row r="142" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="18"/>
       <c r="B142" s="18"/>
       <c r="C142" s="18"/>
@@ -13854,23 +13854,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="M168" sqref="M168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="41.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="41.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="5" width="28.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" customWidth="1"/>
+    <col min="3" max="5" width="28.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="35.140625" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="12" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="35.109375" customWidth="1"/>
+    <col min="9" max="9" width="26.44140625" customWidth="1"/>
+    <col min="10" max="12" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -13908,7 +13908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>1062</v>
       </c>
@@ -13944,7 +13944,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>1068</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>1074</v>
       </c>
@@ -14016,7 +14016,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>1080</v>
       </c>
@@ -14052,7 +14052,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>1087</v>
       </c>
@@ -14088,7 +14088,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>1093</v>
       </c>
@@ -14124,7 +14124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>1098</v>
       </c>
@@ -14160,7 +14160,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>1103</v>
       </c>
@@ -14196,7 +14196,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>1109</v>
       </c>
@@ -14232,7 +14232,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>1117</v>
       </c>
@@ -14268,7 +14268,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>1122</v>
       </c>
@@ -14304,7 +14304,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>1127</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>1133</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>1137</v>
       </c>
@@ -14414,7 +14414,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>1142</v>
       </c>
@@ -14450,7 +14450,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>1147</v>
       </c>
@@ -14486,7 +14486,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>1152</v>
       </c>
@@ -14522,7 +14522,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>1157</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>1162</v>
       </c>
@@ -14594,7 +14594,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>1166</v>
       </c>
@@ -14630,7 +14630,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>1171</v>
       </c>
@@ -14666,7 +14666,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>1177</v>
       </c>
@@ -14702,7 +14702,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>1183</v>
       </c>
@@ -14738,7 +14738,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>1187</v>
       </c>
@@ -14774,7 +14774,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>1191</v>
       </c>
@@ -14810,7 +14810,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>1195</v>
       </c>
@@ -14846,7 +14846,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>1201</v>
       </c>
@@ -14882,7 +14882,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>1207</v>
       </c>
@@ -14918,7 +14918,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>1213</v>
       </c>
@@ -14954,7 +14954,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>1219</v>
       </c>
@@ -14990,7 +14990,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>1225</v>
       </c>
@@ -15026,7 +15026,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>1230</v>
       </c>
@@ -15062,7 +15062,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>1235</v>
       </c>
@@ -15098,7 +15098,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>1240</v>
       </c>
@@ -15134,7 +15134,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>1246</v>
       </c>
@@ -15170,7 +15170,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>1252</v>
       </c>
@@ -15206,7 +15206,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>1258</v>
       </c>
@@ -15242,7 +15242,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>1264</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>1269</v>
       </c>
@@ -15314,7 +15314,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>1274</v>
       </c>
@@ -15350,7 +15350,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>1279</v>
       </c>
@@ -15386,7 +15386,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>1284</v>
       </c>
@@ -15422,7 +15422,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>1289</v>
       </c>
@@ -15458,7 +15458,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>1295</v>
       </c>
@@ -15494,7 +15494,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
         <v>1300</v>
       </c>
@@ -15530,7 +15530,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
         <v>1305</v>
       </c>
@@ -15568,7 +15568,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>1310</v>
       </c>
@@ -15604,7 +15604,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
         <v>1315</v>
       </c>
@@ -15640,7 +15640,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
         <v>1320</v>
       </c>
@@ -15676,7 +15676,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
         <v>1324</v>
       </c>
@@ -15712,7 +15712,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
         <v>1330</v>
       </c>
@@ -15748,7 +15748,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
         <v>1334</v>
       </c>
@@ -15784,7 +15784,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
         <v>1340</v>
       </c>
@@ -15820,7 +15820,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
         <v>1346</v>
       </c>
@@ -15856,7 +15856,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
         <v>1352</v>
       </c>
@@ -15892,7 +15892,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
         <v>1357</v>
       </c>
@@ -15928,7 +15928,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
         <v>1361</v>
       </c>
@@ -15964,7 +15964,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16" t="s">
         <v>1366</v>
       </c>
@@ -16000,7 +16000,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16" t="s">
         <v>1371</v>
       </c>
@@ -16036,7 +16036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="16" t="s">
         <v>1376</v>
       </c>
@@ -16072,7 +16072,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
         <v>1381</v>
       </c>
@@ -16108,7 +16108,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
         <v>1383</v>
       </c>
@@ -16144,7 +16144,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
         <v>1389</v>
       </c>
@@ -16180,7 +16180,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
         <v>1393</v>
       </c>
@@ -16216,7 +16216,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16" t="s">
         <v>1400</v>
       </c>
@@ -16252,7 +16252,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
         <v>1404</v>
       </c>
@@ -16288,7 +16288,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="16" t="s">
         <v>1410</v>
       </c>
@@ -16324,7 +16324,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="16" t="s">
         <v>1415</v>
       </c>
@@ -16360,7 +16360,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="16" t="s">
         <v>1420</v>
       </c>
@@ -16396,7 +16396,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="16" t="s">
         <v>1425</v>
       </c>
@@ -16432,7 +16432,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="16" t="s">
         <v>1430</v>
       </c>
@@ -16468,7 +16468,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="16" t="s">
         <v>1436</v>
       </c>
@@ -16504,7 +16504,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="16" t="s">
         <v>1441</v>
       </c>
@@ -16540,7 +16540,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="16" t="s">
         <v>1446</v>
       </c>
@@ -16576,7 +16576,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="16" t="s">
         <v>1451</v>
       </c>
@@ -16612,7 +16612,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="16" t="s">
         <v>1457</v>
       </c>
@@ -16648,7 +16648,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="16" t="s">
         <v>1463</v>
       </c>
@@ -16684,7 +16684,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="16" t="s">
         <v>1469</v>
       </c>
@@ -16720,7 +16720,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="16" t="s">
         <v>1475</v>
       </c>
@@ -16756,7 +16756,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="16" t="s">
         <v>1479</v>
       </c>
@@ -16792,7 +16792,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="16" t="s">
         <v>1485</v>
       </c>
@@ -16830,7 +16830,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="16" t="s">
         <v>1492</v>
       </c>
@@ -16866,7 +16866,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="16" t="s">
         <v>1497</v>
       </c>
@@ -16902,7 +16902,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="16" t="s">
         <v>1503</v>
       </c>
@@ -16938,7 +16938,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="16" t="s">
         <v>1507</v>
       </c>
@@ -16974,7 +16974,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="16" t="s">
         <v>1512</v>
       </c>
@@ -17010,7 +17010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="16" t="s">
         <v>1515</v>
       </c>
@@ -17046,7 +17046,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="16" t="s">
         <v>1520</v>
       </c>
@@ -17082,7 +17082,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="16" t="s">
         <v>1525</v>
       </c>
@@ -17118,7 +17118,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="16" t="s">
         <v>1530</v>
       </c>
@@ -17154,7 +17154,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="16" t="s">
         <v>1536</v>
       </c>
@@ -17190,7 +17190,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="16" t="s">
         <v>1541</v>
       </c>
@@ -17226,7 +17226,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="16" t="s">
         <v>1546</v>
       </c>
@@ -17262,7 +17262,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="16" t="s">
         <v>1551</v>
       </c>
@@ -17298,7 +17298,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="16" t="s">
         <v>1555</v>
       </c>
@@ -17334,7 +17334,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="16" t="s">
         <v>1560</v>
       </c>
@@ -17370,7 +17370,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="16" t="s">
         <v>1566</v>
       </c>
@@ -17406,7 +17406,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="16" t="s">
         <v>1570</v>
       </c>
@@ -17442,7 +17442,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="16" t="s">
         <v>1574</v>
       </c>
@@ -17478,7 +17478,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="16" t="s">
         <v>1579</v>
       </c>
@@ -17514,7 +17514,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="26" t="s">
         <v>1585</v>
       </c>
@@ -17550,7 +17550,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="16" t="s">
         <v>1589</v>
       </c>
@@ -17586,7 +17586,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="16" t="s">
         <v>1594</v>
       </c>
@@ -17622,7 +17622,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="16" t="s">
         <v>1599</v>
       </c>
@@ -17658,7 +17658,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="16" t="s">
         <v>1604</v>
       </c>
@@ -17696,7 +17696,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="16" t="s">
         <v>1611</v>
       </c>
@@ -17732,7 +17732,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="16" t="s">
         <v>1617</v>
       </c>
@@ -17770,7 +17770,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="16" t="s">
         <v>1620</v>
       </c>
@@ -17806,7 +17806,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="16" t="s">
         <v>1626</v>
       </c>
@@ -17842,7 +17842,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="16" t="s">
         <v>1631</v>
       </c>
@@ -17876,7 +17876,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="16" t="s">
         <v>1636</v>
       </c>
@@ -17912,7 +17912,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="16" t="s">
         <v>1641</v>
       </c>
@@ -17948,7 +17948,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="16" t="s">
         <v>1645</v>
       </c>
@@ -17984,7 +17984,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="16" t="s">
         <v>1650</v>
       </c>
@@ -18020,7 +18020,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="16" t="s">
         <v>1655</v>
       </c>
@@ -18056,7 +18056,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="16" t="s">
         <v>1660</v>
       </c>
@@ -18092,7 +18092,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="16" t="s">
         <v>1665</v>
       </c>
@@ -18128,7 +18128,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="16" t="s">
         <v>1670</v>
       </c>
@@ -18164,7 +18164,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="16" t="s">
         <v>1675</v>
       </c>
@@ -18202,7 +18202,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="16" t="s">
         <v>1680</v>
       </c>
@@ -18238,7 +18238,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="16" t="s">
         <v>1685</v>
       </c>
@@ -18274,7 +18274,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="16" t="s">
         <v>1690</v>
       </c>
@@ -18310,7 +18310,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="16" t="s">
         <v>1696</v>
       </c>
@@ -18346,7 +18346,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="16" t="s">
         <v>1702</v>
       </c>
@@ -18384,7 +18384,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="16" t="s">
         <v>1708</v>
       </c>
@@ -18420,7 +18420,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="16" t="s">
         <v>1712</v>
       </c>
@@ -18456,7 +18456,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="16" t="s">
         <v>1717</v>
       </c>
@@ -18492,7 +18492,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="16" t="s">
         <v>1722</v>
       </c>
@@ -18528,7 +18528,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="16" t="s">
         <v>1729</v>
       </c>
@@ -18564,7 +18564,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="16" t="s">
         <v>1734</v>
       </c>
@@ -18600,7 +18600,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="16" t="s">
         <v>1739</v>
       </c>
@@ -18636,7 +18636,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="16" t="s">
         <v>1745</v>
       </c>
@@ -18672,7 +18672,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="16" t="s">
         <v>1751</v>
       </c>
@@ -18708,7 +18708,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="16" t="s">
         <v>1758</v>
       </c>
@@ -18744,7 +18744,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="16" t="s">
         <v>1763</v>
       </c>
@@ -18780,7 +18780,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="16" t="s">
         <v>1768</v>
       </c>
@@ -18816,7 +18816,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="16" t="s">
         <v>1773</v>
       </c>
@@ -18852,7 +18852,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="16" t="s">
         <v>1777</v>
       </c>
@@ -18888,7 +18888,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="16" t="s">
         <v>1782</v>
       </c>
@@ -18924,7 +18924,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="16" t="s">
         <v>1787</v>
       </c>
@@ -18960,7 +18960,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="16" t="s">
         <v>1792</v>
       </c>
@@ -18996,7 +18996,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="16" t="s">
         <v>1796</v>
       </c>
@@ -19034,7 +19034,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="16" t="s">
         <v>1801</v>
       </c>
@@ -19070,7 +19070,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="16" t="s">
         <v>1807</v>
       </c>
@@ -19106,7 +19106,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="16" t="s">
         <v>1813</v>
       </c>
@@ -19142,7 +19142,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="16" t="s">
         <v>1818</v>
       </c>
@@ -19178,7 +19178,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="16" t="s">
         <v>1823</v>
       </c>
@@ -19214,7 +19214,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="16" t="s">
         <v>1829</v>
       </c>
@@ -19250,7 +19250,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="16" t="s">
         <v>1834</v>
       </c>
@@ -19286,7 +19286,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="16" t="s">
         <v>1838</v>
       </c>
@@ -19322,7 +19322,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="16" t="s">
         <v>1844</v>
       </c>
@@ -19358,7 +19358,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="16" t="s">
         <v>1848</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="16" t="s">
         <v>1852</v>
       </c>
@@ -19430,7 +19430,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="16" t="s">
         <v>1857</v>
       </c>
@@ -19466,7 +19466,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="16" t="s">
         <v>1863</v>
       </c>
@@ -19502,7 +19502,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="16" t="s">
         <v>1868</v>
       </c>
@@ -19538,7 +19538,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="16" t="s">
         <v>1874</v>
       </c>
@@ -19574,7 +19574,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="16" t="s">
         <v>1880</v>
       </c>
@@ -19610,7 +19610,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="16" t="s">
         <v>1885</v>
       </c>
@@ -19646,7 +19646,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="16" t="s">
         <v>1890</v>
       </c>
@@ -19682,7 +19682,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="16" t="s">
         <v>1895</v>
       </c>
@@ -19718,7 +19718,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="16" t="s">
         <v>1899</v>
       </c>
@@ -19754,7 +19754,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="16" t="s">
         <v>1904</v>
       </c>
@@ -19790,7 +19790,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="16" t="s">
         <v>1910</v>
       </c>
@@ -19824,7 +19824,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="16" t="s">
         <v>1915</v>
       </c>
@@ -19860,7 +19860,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="16" t="s">
         <v>1920</v>
       </c>
@@ -19896,10 +19896,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M168" s="3"/>
     </row>
-    <row r="169" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -20091,24 +20091,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="3" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="3" width="28.6640625" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="10" width="28.7109375" customWidth="1"/>
-    <col min="11" max="26" width="9.140625" customWidth="1"/>
+    <col min="9" max="10" width="28.6640625" customWidth="1"/>
+    <col min="11" max="26" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20188,7 +20188,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>467</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>347</v>
       </c>
@@ -20333,7 +20333,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>231</v>
       </c>
@@ -20407,7 +20407,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>106</v>
       </c>
@@ -20466,7 +20466,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -20540,7 +20540,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>258</v>
       </c>
@@ -20608,7 +20608,7 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>437</v>
       </c>
@@ -20682,7 +20682,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>429</v>
       </c>
@@ -20750,7 +20750,7 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>452</v>
       </c>
@@ -20822,7 +20822,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>523</v>
       </c>
@@ -20890,7 +20890,7 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>663</v>
       </c>
@@ -20964,7 +20964,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>474</v>
       </c>
@@ -21020,7 +21020,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>201</v>
       </c>
@@ -21091,7 +21091,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>267</v>
       </c>
@@ -21159,7 +21159,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>183</v>
       </c>
@@ -21233,7 +21233,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>791</v>
       </c>
@@ -21304,7 +21304,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>266</v>
       </c>
@@ -21378,7 +21378,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>1086</v>
       </c>
@@ -21441,7 +21441,7 @@
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>1212</v>
       </c>
@@ -21512,7 +21512,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>134</v>
       </c>
@@ -21580,7 +21580,7 @@
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>143</v>
       </c>
@@ -21654,7 +21654,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>607</v>
       </c>
@@ -21728,7 +21728,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>313</v>
       </c>
@@ -21802,7 +21802,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>356</v>
       </c>
@@ -21867,7 +21867,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
@@ -21932,7 +21932,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
@@ -21997,7 +21997,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>221</v>
       </c>
@@ -22062,7 +22062,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>1999</v>
       </c>
@@ -22097,7 +22097,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>96</v>
       </c>
@@ -22162,7 +22162,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>192</v>
       </c>
@@ -22227,7 +22227,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>153</v>
       </c>
@@ -22292,7 +22292,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>372</v>
       </c>
@@ -22357,7 +22357,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>453</v>
       </c>
@@ -22422,7 +22422,7 @@
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>771</v>
       </c>
@@ -22499,7 +22499,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>324</v>
       </c>
@@ -22576,7 +22576,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>508</v>
       </c>
@@ -22634,7 +22634,7 @@
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>202</v>
       </c>
@@ -22708,7 +22708,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>460</v>
       </c>
@@ -22782,7 +22782,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>26</v>
       </c>
@@ -22856,7 +22856,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
@@ -22927,7 +22927,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>396</v>
       </c>
@@ -23001,7 +23001,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>614</v>
       </c>
@@ -23065,7 +23065,7 @@
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>445</v>
       </c>
@@ -23139,7 +23139,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>332</v>
       </c>
@@ -23213,7 +23213,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>184</v>
       </c>
@@ -23287,7 +23287,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>125</v>
       </c>
@@ -23358,7 +23358,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>322</v>
       </c>
@@ -23426,7 +23426,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>388</v>
       </c>
@@ -23488,7 +23488,7 @@
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
     </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>239</v>
       </c>
@@ -23559,7 +23559,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>268</v>
       </c>
@@ -23624,7 +23624,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>24</v>
       </c>
@@ -23686,7 +23686,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>133</v>
       </c>
@@ -23733,7 +23733,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>62</v>
       </c>
@@ -23798,7 +23798,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>257</v>
       </c>
@@ -23854,7 +23854,7 @@
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>615</v>
       </c>
@@ -23919,7 +23919,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>95</v>
       </c>
@@ -23984,7 +23984,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>193</v>
       </c>
@@ -24049,7 +24049,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>154</v>
       </c>
@@ -24114,7 +24114,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>64</v>
       </c>
@@ -24185,7 +24185,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>340</v>
       </c>
@@ -24250,7 +24250,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>39</v>
       </c>
@@ -24318,7 +24318,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>172</v>
       </c>
@@ -24382,7 +24382,7 @@
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>97</v>
       </c>
@@ -24450,7 +24450,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>544</v>
       </c>
@@ -24506,7 +24506,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>222</v>
       </c>
@@ -24574,7 +24574,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>126</v>
       </c>
@@ -24642,7 +24642,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>50</v>
       </c>
@@ -24707,7 +24707,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>144</v>
       </c>
@@ -24772,7 +24772,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>84</v>
       </c>
@@ -24822,7 +24822,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>2096</v>
       </c>
@@ -24864,7 +24864,7 @@
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>37</v>
       </c>
@@ -24914,7 +24914,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>380</v>
       </c>
@@ -24979,7 +24979,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>210</v>
       </c>
@@ -25040,7 +25040,7 @@
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>662</v>
       </c>
@@ -25096,7 +25096,7 @@
       <c r="Y75" s="6"/>
       <c r="Z75" s="6"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>220</v>
       </c>
@@ -25164,7 +25164,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>162</v>
       </c>
@@ -25229,7 +25229,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>752</v>
       </c>
@@ -25279,7 +25279,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>966</v>
       </c>
@@ -25326,7 +25326,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>371</v>
       </c>
@@ -25391,7 +25391,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>509</v>
       </c>
@@ -25444,7 +25444,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>117</v>
       </c>
@@ -25500,7 +25500,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>108</v>
       </c>
@@ -25553,7 +25553,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>49</v>
       </c>
@@ -25609,7 +25609,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>494</v>
       </c>
@@ -25674,7 +25674,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>107</v>
       </c>
@@ -25739,7 +25739,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>333</v>
       </c>
@@ -25801,7 +25801,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>72</v>
       </c>
@@ -25863,7 +25863,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>283</v>
       </c>
@@ -25928,7 +25928,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>240</v>
       </c>
@@ -25993,7 +25993,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>314</v>
       </c>
@@ -26058,7 +26058,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>85</v>
       </c>
@@ -26123,7 +26123,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>86</v>
       </c>
@@ -26188,7 +26188,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>545</v>
       </c>
@@ -26253,7 +26253,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>323</v>
       </c>
@@ -26318,7 +26318,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>182</v>
       </c>
@@ -26383,7 +26383,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>211</v>
       </c>
@@ -26448,7 +26448,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>428</v>
       </c>
@@ -26507,7 +26507,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>163</v>
       </c>
@@ -26569,7 +26569,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>73</v>
       </c>
@@ -26631,7 +26631,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>135</v>
       </c>
@@ -26696,7 +26696,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>305</v>
       </c>
@@ -26761,7 +26761,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>683</v>
       </c>
@@ -26815,7 +26815,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>909</v>
       </c>
@@ -26871,7 +26871,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>430</v>
       </c>
@@ -26912,7 +26912,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>171</v>
       </c>
@@ -26973,7 +26973,7 @@
       <c r="Y106" s="6"/>
       <c r="Z106" s="6"/>
     </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>870</v>
       </c>
@@ -27035,3655 +27035,3655 @@
       <c r="Y107" s="6"/>
       <c r="Z107" s="6"/>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E108" s="8"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E109" s="8"/>
       <c r="G109" s="9"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E110" s="8"/>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E111" s="8"/>
       <c r="G111" s="9"/>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E112" s="8"/>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E113" s="8"/>
       <c r="G113" s="9"/>
     </row>
-    <row r="114" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E114" s="8"/>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E115" s="8"/>
       <c r="G115" s="9"/>
     </row>
-    <row r="116" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E116" s="8"/>
       <c r="G116" s="9"/>
     </row>
-    <row r="117" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E117" s="8"/>
       <c r="G117" s="9"/>
     </row>
-    <row r="118" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E118" s="8"/>
       <c r="G118" s="9"/>
     </row>
-    <row r="119" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E119" s="8"/>
       <c r="G119" s="9"/>
     </row>
-    <row r="120" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E120" s="8"/>
       <c r="G120" s="9"/>
     </row>
-    <row r="121" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E121" s="8"/>
       <c r="G121" s="9"/>
     </row>
-    <row r="122" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E122" s="8"/>
       <c r="G122" s="9"/>
     </row>
-    <row r="123" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E123" s="8"/>
       <c r="G123" s="9"/>
     </row>
-    <row r="124" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E124" s="8"/>
       <c r="G124" s="9"/>
     </row>
-    <row r="125" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E125" s="8"/>
       <c r="G125" s="9"/>
     </row>
-    <row r="126" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E126" s="8"/>
       <c r="G126" s="9"/>
     </row>
-    <row r="127" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E127" s="8"/>
       <c r="G127" s="9"/>
     </row>
-    <row r="128" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E128" s="8"/>
       <c r="G128" s="9"/>
     </row>
-    <row r="129" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E129" s="8"/>
       <c r="G129" s="9"/>
     </row>
-    <row r="130" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E130" s="8"/>
       <c r="G130" s="9"/>
     </row>
-    <row r="131" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E131" s="8"/>
       <c r="G131" s="9"/>
     </row>
-    <row r="132" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E132" s="8"/>
       <c r="G132" s="9"/>
     </row>
-    <row r="133" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E133" s="8"/>
       <c r="G133" s="9"/>
     </row>
-    <row r="134" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E134" s="8"/>
       <c r="G134" s="9"/>
     </row>
-    <row r="135" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E135" s="8"/>
       <c r="G135" s="9"/>
     </row>
-    <row r="136" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E136" s="8"/>
       <c r="G136" s="9"/>
     </row>
-    <row r="137" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E137" s="8"/>
       <c r="G137" s="9"/>
     </row>
-    <row r="138" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E138" s="8"/>
       <c r="G138" s="9"/>
     </row>
-    <row r="139" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E139" s="8"/>
       <c r="G139" s="9"/>
     </row>
-    <row r="140" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E140" s="8"/>
       <c r="G140" s="9"/>
     </row>
-    <row r="141" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E141" s="8"/>
       <c r="G141" s="9"/>
     </row>
-    <row r="142" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E142" s="8"/>
       <c r="G142" s="9"/>
     </row>
-    <row r="143" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E143" s="8"/>
       <c r="G143" s="9"/>
     </row>
-    <row r="144" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E144" s="8"/>
       <c r="G144" s="9"/>
     </row>
-    <row r="145" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E145" s="8"/>
       <c r="G145" s="9"/>
     </row>
-    <row r="146" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E146" s="8"/>
       <c r="G146" s="9"/>
     </row>
-    <row r="147" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E147" s="8"/>
       <c r="G147" s="9"/>
     </row>
-    <row r="148" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E148" s="8"/>
       <c r="G148" s="9"/>
     </row>
-    <row r="149" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E149" s="8"/>
       <c r="G149" s="9"/>
     </row>
-    <row r="150" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E150" s="8"/>
       <c r="G150" s="9"/>
     </row>
-    <row r="151" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E151" s="8"/>
       <c r="G151" s="9"/>
     </row>
-    <row r="152" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E152" s="8"/>
       <c r="G152" s="9"/>
     </row>
-    <row r="153" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E153" s="8"/>
       <c r="G153" s="9"/>
     </row>
-    <row r="154" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E154" s="8"/>
       <c r="G154" s="9"/>
     </row>
-    <row r="155" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E155" s="8"/>
       <c r="G155" s="9"/>
     </row>
-    <row r="156" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E156" s="8"/>
       <c r="G156" s="9"/>
     </row>
-    <row r="157" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E157" s="8"/>
       <c r="G157" s="9"/>
     </row>
-    <row r="158" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E158" s="8"/>
       <c r="G158" s="9"/>
     </row>
-    <row r="159" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E159" s="8"/>
       <c r="G159" s="9"/>
     </row>
-    <row r="160" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E160" s="8"/>
       <c r="G160" s="9"/>
     </row>
-    <row r="161" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E161" s="8"/>
       <c r="G161" s="9"/>
     </row>
-    <row r="162" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E162" s="8"/>
       <c r="G162" s="9"/>
     </row>
-    <row r="163" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E163" s="8"/>
       <c r="G163" s="9"/>
     </row>
-    <row r="164" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E164" s="8"/>
       <c r="G164" s="9"/>
     </row>
-    <row r="165" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E165" s="8"/>
       <c r="G165" s="9"/>
     </row>
-    <row r="166" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E166" s="8"/>
       <c r="G166" s="9"/>
     </row>
-    <row r="167" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E167" s="8"/>
       <c r="G167" s="9"/>
     </row>
-    <row r="168" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E168" s="8"/>
       <c r="G168" s="9"/>
     </row>
-    <row r="169" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E169" s="8"/>
       <c r="G169" s="9"/>
     </row>
-    <row r="170" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E170" s="8"/>
       <c r="G170" s="9"/>
     </row>
-    <row r="171" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E171" s="8"/>
       <c r="G171" s="9"/>
     </row>
-    <row r="172" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E172" s="8"/>
       <c r="G172" s="9"/>
     </row>
-    <row r="173" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E173" s="8"/>
       <c r="G173" s="9"/>
     </row>
-    <row r="174" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E174" s="8"/>
       <c r="G174" s="9"/>
     </row>
-    <row r="175" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E175" s="8"/>
       <c r="G175" s="9"/>
     </row>
-    <row r="176" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E176" s="8"/>
       <c r="G176" s="9"/>
     </row>
-    <row r="177" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E177" s="8"/>
       <c r="G177" s="9"/>
     </row>
-    <row r="178" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E178" s="8"/>
       <c r="G178" s="9"/>
     </row>
-    <row r="179" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E179" s="8"/>
       <c r="G179" s="9"/>
     </row>
-    <row r="180" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E180" s="8"/>
       <c r="G180" s="9"/>
     </row>
-    <row r="181" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E181" s="8"/>
       <c r="G181" s="9"/>
     </row>
-    <row r="182" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E182" s="8"/>
       <c r="G182" s="9"/>
     </row>
-    <row r="183" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E183" s="8"/>
       <c r="G183" s="9"/>
     </row>
-    <row r="184" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E184" s="8"/>
       <c r="G184" s="9"/>
     </row>
-    <row r="185" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E185" s="8"/>
       <c r="G185" s="9"/>
     </row>
-    <row r="186" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E186" s="8"/>
       <c r="G186" s="9"/>
     </row>
-    <row r="187" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E187" s="8"/>
       <c r="G187" s="9"/>
     </row>
-    <row r="188" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E188" s="8"/>
       <c r="G188" s="9"/>
     </row>
-    <row r="189" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E189" s="8"/>
       <c r="G189" s="9"/>
     </row>
-    <row r="190" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E190" s="8"/>
       <c r="G190" s="9"/>
     </row>
-    <row r="191" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E191" s="8"/>
       <c r="G191" s="9"/>
     </row>
-    <row r="192" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E192" s="8"/>
       <c r="G192" s="9"/>
     </row>
-    <row r="193" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E193" s="8"/>
       <c r="G193" s="9"/>
     </row>
-    <row r="194" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E194" s="8"/>
       <c r="G194" s="9"/>
     </row>
-    <row r="195" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E195" s="8"/>
       <c r="G195" s="9"/>
     </row>
-    <row r="196" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E196" s="8"/>
       <c r="G196" s="9"/>
     </row>
-    <row r="197" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E197" s="8"/>
       <c r="G197" s="9"/>
     </row>
-    <row r="198" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E198" s="8"/>
       <c r="G198" s="9"/>
     </row>
-    <row r="199" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E199" s="8"/>
       <c r="G199" s="9"/>
     </row>
-    <row r="200" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E200" s="8"/>
       <c r="G200" s="9"/>
     </row>
-    <row r="201" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E201" s="8"/>
       <c r="G201" s="9"/>
     </row>
-    <row r="202" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E202" s="8"/>
       <c r="G202" s="9"/>
     </row>
-    <row r="203" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E203" s="8"/>
       <c r="G203" s="9"/>
     </row>
-    <row r="204" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E204" s="8"/>
       <c r="G204" s="9"/>
     </row>
-    <row r="205" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E205" s="8"/>
       <c r="G205" s="9"/>
     </row>
-    <row r="206" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E206" s="8"/>
       <c r="G206" s="9"/>
     </row>
-    <row r="207" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E207" s="8"/>
       <c r="G207" s="9"/>
     </row>
-    <row r="208" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E208" s="8"/>
       <c r="G208" s="9"/>
     </row>
-    <row r="209" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E209" s="8"/>
       <c r="G209" s="9"/>
     </row>
-    <row r="210" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E210" s="8"/>
       <c r="G210" s="9"/>
     </row>
-    <row r="211" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E211" s="8"/>
       <c r="G211" s="9"/>
     </row>
-    <row r="212" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E212" s="8"/>
       <c r="G212" s="9"/>
     </row>
-    <row r="213" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E213" s="8"/>
       <c r="G213" s="9"/>
     </row>
-    <row r="214" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E214" s="8"/>
       <c r="G214" s="9"/>
     </row>
-    <row r="215" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E215" s="8"/>
       <c r="G215" s="9"/>
     </row>
-    <row r="216" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E216" s="8"/>
       <c r="G216" s="9"/>
     </row>
-    <row r="217" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E217" s="8"/>
       <c r="G217" s="9"/>
     </row>
-    <row r="218" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E218" s="8"/>
       <c r="G218" s="9"/>
     </row>
-    <row r="219" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E219" s="8"/>
       <c r="G219" s="9"/>
     </row>
-    <row r="220" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E220" s="8"/>
       <c r="G220" s="9"/>
     </row>
-    <row r="221" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E221" s="8"/>
       <c r="G221" s="9"/>
     </row>
-    <row r="222" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E222" s="8"/>
       <c r="G222" s="9"/>
     </row>
-    <row r="223" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E223" s="8"/>
       <c r="G223" s="9"/>
     </row>
-    <row r="224" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E224" s="8"/>
       <c r="G224" s="9"/>
     </row>
-    <row r="225" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E225" s="8"/>
       <c r="G225" s="9"/>
     </row>
-    <row r="226" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E226" s="8"/>
       <c r="G226" s="9"/>
     </row>
-    <row r="227" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E227" s="8"/>
       <c r="G227" s="9"/>
     </row>
-    <row r="228" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E228" s="8"/>
       <c r="G228" s="9"/>
     </row>
-    <row r="229" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E229" s="8"/>
       <c r="G229" s="9"/>
     </row>
-    <row r="230" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E230" s="8"/>
       <c r="G230" s="9"/>
     </row>
-    <row r="231" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E231" s="8"/>
       <c r="G231" s="9"/>
     </row>
-    <row r="232" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E232" s="8"/>
       <c r="G232" s="9"/>
     </row>
-    <row r="233" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E233" s="8"/>
       <c r="G233" s="9"/>
     </row>
-    <row r="234" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E234" s="8"/>
       <c r="G234" s="9"/>
     </row>
-    <row r="235" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E235" s="8"/>
       <c r="G235" s="9"/>
     </row>
-    <row r="236" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E236" s="8"/>
       <c r="G236" s="9"/>
     </row>
-    <row r="237" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E237" s="8"/>
       <c r="G237" s="9"/>
     </row>
-    <row r="238" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E238" s="8"/>
       <c r="G238" s="9"/>
     </row>
-    <row r="239" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E239" s="8"/>
       <c r="G239" s="9"/>
     </row>
-    <row r="240" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E240" s="8"/>
       <c r="G240" s="9"/>
     </row>
-    <row r="241" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E241" s="8"/>
       <c r="G241" s="9"/>
     </row>
-    <row r="242" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E242" s="8"/>
       <c r="G242" s="9"/>
     </row>
-    <row r="243" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E243" s="8"/>
       <c r="G243" s="9"/>
     </row>
-    <row r="244" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E244" s="8"/>
       <c r="G244" s="9"/>
     </row>
-    <row r="245" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E245" s="8"/>
       <c r="G245" s="9"/>
     </row>
-    <row r="246" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E246" s="8"/>
       <c r="G246" s="9"/>
     </row>
-    <row r="247" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E247" s="8"/>
       <c r="G247" s="9"/>
     </row>
-    <row r="248" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E248" s="8"/>
       <c r="G248" s="9"/>
     </row>
-    <row r="249" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E249" s="8"/>
       <c r="G249" s="9"/>
     </row>
-    <row r="250" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E250" s="8"/>
       <c r="G250" s="9"/>
     </row>
-    <row r="251" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E251" s="8"/>
       <c r="G251" s="9"/>
     </row>
-    <row r="252" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E252" s="8"/>
       <c r="G252" s="9"/>
     </row>
-    <row r="253" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E253" s="8"/>
       <c r="G253" s="9"/>
     </row>
-    <row r="254" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E254" s="8"/>
       <c r="G254" s="9"/>
     </row>
-    <row r="255" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E255" s="8"/>
       <c r="G255" s="9"/>
     </row>
-    <row r="256" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E256" s="8"/>
       <c r="G256" s="9"/>
     </row>
-    <row r="257" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E257" s="8"/>
       <c r="G257" s="9"/>
     </row>
-    <row r="258" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E258" s="8"/>
       <c r="G258" s="9"/>
     </row>
-    <row r="259" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E259" s="8"/>
       <c r="G259" s="9"/>
     </row>
-    <row r="260" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E260" s="8"/>
       <c r="G260" s="9"/>
     </row>
-    <row r="261" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E261" s="8"/>
       <c r="G261" s="9"/>
     </row>
-    <row r="262" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E262" s="8"/>
       <c r="G262" s="9"/>
     </row>
-    <row r="263" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E263" s="8"/>
       <c r="G263" s="9"/>
     </row>
-    <row r="264" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E264" s="8"/>
       <c r="G264" s="9"/>
     </row>
-    <row r="265" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E265" s="8"/>
       <c r="G265" s="9"/>
     </row>
-    <row r="266" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E266" s="8"/>
       <c r="G266" s="9"/>
     </row>
-    <row r="267" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E267" s="8"/>
       <c r="G267" s="9"/>
     </row>
-    <row r="268" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E268" s="8"/>
       <c r="G268" s="9"/>
     </row>
-    <row r="269" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E269" s="8"/>
       <c r="G269" s="9"/>
     </row>
-    <row r="270" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E270" s="8"/>
       <c r="G270" s="9"/>
     </row>
-    <row r="271" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E271" s="8"/>
       <c r="G271" s="9"/>
     </row>
-    <row r="272" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E272" s="8"/>
       <c r="G272" s="9"/>
     </row>
-    <row r="273" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E273" s="8"/>
       <c r="G273" s="9"/>
     </row>
-    <row r="274" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E274" s="8"/>
       <c r="G274" s="9"/>
     </row>
-    <row r="275" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E275" s="8"/>
       <c r="G275" s="9"/>
     </row>
-    <row r="276" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E276" s="8"/>
       <c r="G276" s="9"/>
     </row>
-    <row r="277" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E277" s="8"/>
       <c r="G277" s="9"/>
     </row>
-    <row r="278" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E278" s="8"/>
       <c r="G278" s="9"/>
     </row>
-    <row r="279" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E279" s="8"/>
       <c r="G279" s="9"/>
     </row>
-    <row r="280" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E280" s="8"/>
       <c r="G280" s="9"/>
     </row>
-    <row r="281" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E281" s="8"/>
       <c r="G281" s="9"/>
     </row>
-    <row r="282" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E282" s="8"/>
       <c r="G282" s="9"/>
     </row>
-    <row r="283" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E283" s="8"/>
       <c r="G283" s="9"/>
     </row>
-    <row r="284" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E284" s="8"/>
       <c r="G284" s="9"/>
     </row>
-    <row r="285" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E285" s="8"/>
       <c r="G285" s="9"/>
     </row>
-    <row r="286" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E286" s="8"/>
       <c r="G286" s="9"/>
     </row>
-    <row r="287" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E287" s="8"/>
       <c r="G287" s="9"/>
     </row>
-    <row r="288" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E288" s="8"/>
       <c r="G288" s="9"/>
     </row>
-    <row r="289" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E289" s="8"/>
       <c r="G289" s="9"/>
     </row>
-    <row r="290" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E290" s="8"/>
       <c r="G290" s="9"/>
     </row>
-    <row r="291" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E291" s="8"/>
       <c r="G291" s="9"/>
     </row>
-    <row r="292" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E292" s="8"/>
       <c r="G292" s="9"/>
     </row>
-    <row r="293" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E293" s="8"/>
       <c r="G293" s="9"/>
     </row>
-    <row r="294" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E294" s="8"/>
       <c r="G294" s="9"/>
     </row>
-    <row r="295" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E295" s="8"/>
       <c r="G295" s="9"/>
     </row>
-    <row r="296" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E296" s="8"/>
       <c r="G296" s="9"/>
     </row>
-    <row r="297" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E297" s="8"/>
       <c r="G297" s="9"/>
     </row>
-    <row r="298" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E298" s="8"/>
       <c r="G298" s="9"/>
     </row>
-    <row r="299" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E299" s="8"/>
       <c r="G299" s="9"/>
     </row>
-    <row r="300" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E300" s="8"/>
       <c r="G300" s="9"/>
     </row>
-    <row r="301" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E301" s="8"/>
       <c r="G301" s="9"/>
     </row>
-    <row r="302" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E302" s="8"/>
       <c r="G302" s="9"/>
     </row>
-    <row r="303" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E303" s="8"/>
       <c r="G303" s="9"/>
     </row>
-    <row r="304" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E304" s="8"/>
       <c r="G304" s="9"/>
     </row>
-    <row r="305" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E305" s="8"/>
       <c r="G305" s="9"/>
     </row>
-    <row r="306" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E306" s="8"/>
       <c r="G306" s="9"/>
     </row>
-    <row r="307" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E307" s="8"/>
       <c r="G307" s="9"/>
     </row>
-    <row r="308" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E308" s="8"/>
       <c r="G308" s="9"/>
     </row>
-    <row r="309" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E309" s="8"/>
       <c r="G309" s="9"/>
     </row>
-    <row r="310" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E310" s="8"/>
       <c r="G310" s="9"/>
     </row>
-    <row r="311" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E311" s="8"/>
       <c r="G311" s="9"/>
     </row>
-    <row r="312" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E312" s="8"/>
       <c r="G312" s="9"/>
     </row>
-    <row r="313" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E313" s="8"/>
       <c r="G313" s="9"/>
     </row>
-    <row r="314" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E314" s="8"/>
       <c r="G314" s="9"/>
     </row>
-    <row r="315" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E315" s="8"/>
       <c r="G315" s="9"/>
     </row>
-    <row r="316" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E316" s="8"/>
       <c r="G316" s="9"/>
     </row>
-    <row r="317" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E317" s="8"/>
       <c r="G317" s="9"/>
     </row>
-    <row r="318" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E318" s="8"/>
       <c r="G318" s="9"/>
     </row>
-    <row r="319" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E319" s="8"/>
       <c r="G319" s="9"/>
     </row>
-    <row r="320" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E320" s="8"/>
       <c r="G320" s="9"/>
     </row>
-    <row r="321" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E321" s="8"/>
       <c r="G321" s="9"/>
     </row>
-    <row r="322" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E322" s="8"/>
       <c r="G322" s="9"/>
     </row>
-    <row r="323" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E323" s="8"/>
       <c r="G323" s="9"/>
     </row>
-    <row r="324" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E324" s="8"/>
       <c r="G324" s="9"/>
     </row>
-    <row r="325" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E325" s="8"/>
       <c r="G325" s="9"/>
     </row>
-    <row r="326" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E326" s="8"/>
       <c r="G326" s="9"/>
     </row>
-    <row r="327" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E327" s="8"/>
       <c r="G327" s="9"/>
     </row>
-    <row r="328" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E328" s="8"/>
       <c r="G328" s="9"/>
     </row>
-    <row r="329" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E329" s="8"/>
       <c r="G329" s="9"/>
     </row>
-    <row r="330" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E330" s="8"/>
       <c r="G330" s="9"/>
     </row>
-    <row r="331" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E331" s="8"/>
       <c r="G331" s="9"/>
     </row>
-    <row r="332" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E332" s="8"/>
       <c r="G332" s="9"/>
     </row>
-    <row r="333" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E333" s="8"/>
       <c r="G333" s="9"/>
     </row>
-    <row r="334" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E334" s="8"/>
       <c r="G334" s="9"/>
     </row>
-    <row r="335" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E335" s="8"/>
       <c r="G335" s="9"/>
     </row>
-    <row r="336" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E336" s="8"/>
       <c r="G336" s="9"/>
     </row>
-    <row r="337" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E337" s="8"/>
       <c r="G337" s="9"/>
     </row>
-    <row r="338" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E338" s="8"/>
       <c r="G338" s="9"/>
     </row>
-    <row r="339" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E339" s="8"/>
       <c r="G339" s="9"/>
     </row>
-    <row r="340" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E340" s="8"/>
       <c r="G340" s="9"/>
     </row>
-    <row r="341" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E341" s="8"/>
       <c r="G341" s="9"/>
     </row>
-    <row r="342" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E342" s="8"/>
       <c r="G342" s="9"/>
     </row>
-    <row r="343" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E343" s="8"/>
       <c r="G343" s="9"/>
     </row>
-    <row r="344" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E344" s="8"/>
       <c r="G344" s="9"/>
     </row>
-    <row r="345" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E345" s="8"/>
       <c r="G345" s="9"/>
     </row>
-    <row r="346" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E346" s="8"/>
       <c r="G346" s="9"/>
     </row>
-    <row r="347" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E347" s="8"/>
       <c r="G347" s="9"/>
     </row>
-    <row r="348" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E348" s="8"/>
       <c r="G348" s="9"/>
     </row>
-    <row r="349" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E349" s="8"/>
       <c r="G349" s="9"/>
     </row>
-    <row r="350" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E350" s="8"/>
       <c r="G350" s="9"/>
     </row>
-    <row r="351" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E351" s="8"/>
       <c r="G351" s="9"/>
     </row>
-    <row r="352" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E352" s="8"/>
       <c r="G352" s="9"/>
     </row>
-    <row r="353" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E353" s="8"/>
       <c r="G353" s="9"/>
     </row>
-    <row r="354" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E354" s="8"/>
       <c r="G354" s="9"/>
     </row>
-    <row r="355" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E355" s="8"/>
       <c r="G355" s="9"/>
     </row>
-    <row r="356" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E356" s="8"/>
       <c r="G356" s="9"/>
     </row>
-    <row r="357" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E357" s="8"/>
       <c r="G357" s="9"/>
     </row>
-    <row r="358" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E358" s="8"/>
       <c r="G358" s="9"/>
     </row>
-    <row r="359" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E359" s="8"/>
       <c r="G359" s="9"/>
     </row>
-    <row r="360" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E360" s="8"/>
       <c r="G360" s="9"/>
     </row>
-    <row r="361" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E361" s="8"/>
       <c r="G361" s="9"/>
     </row>
-    <row r="362" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E362" s="8"/>
       <c r="G362" s="9"/>
     </row>
-    <row r="363" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E363" s="8"/>
       <c r="G363" s="9"/>
     </row>
-    <row r="364" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E364" s="8"/>
       <c r="G364" s="9"/>
     </row>
-    <row r="365" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E365" s="8"/>
       <c r="G365" s="9"/>
     </row>
-    <row r="366" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E366" s="8"/>
       <c r="G366" s="9"/>
     </row>
-    <row r="367" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E367" s="8"/>
       <c r="G367" s="9"/>
     </row>
-    <row r="368" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E368" s="8"/>
       <c r="G368" s="9"/>
     </row>
-    <row r="369" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E369" s="8"/>
       <c r="G369" s="9"/>
     </row>
-    <row r="370" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E370" s="8"/>
       <c r="G370" s="9"/>
     </row>
-    <row r="371" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E371" s="8"/>
       <c r="G371" s="9"/>
     </row>
-    <row r="372" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E372" s="8"/>
       <c r="G372" s="9"/>
     </row>
-    <row r="373" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E373" s="8"/>
       <c r="G373" s="9"/>
     </row>
-    <row r="374" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E374" s="8"/>
       <c r="G374" s="9"/>
     </row>
-    <row r="375" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E375" s="8"/>
       <c r="G375" s="9"/>
     </row>
-    <row r="376" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E376" s="8"/>
       <c r="G376" s="9"/>
     </row>
-    <row r="377" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E377" s="8"/>
       <c r="G377" s="9"/>
     </row>
-    <row r="378" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E378" s="8"/>
       <c r="G378" s="9"/>
     </row>
-    <row r="379" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E379" s="8"/>
       <c r="G379" s="9"/>
     </row>
-    <row r="380" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E380" s="8"/>
       <c r="G380" s="9"/>
     </row>
-    <row r="381" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E381" s="8"/>
       <c r="G381" s="9"/>
     </row>
-    <row r="382" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E382" s="8"/>
       <c r="G382" s="9"/>
     </row>
-    <row r="383" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E383" s="8"/>
       <c r="G383" s="9"/>
     </row>
-    <row r="384" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E384" s="8"/>
       <c r="G384" s="9"/>
     </row>
-    <row r="385" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E385" s="8"/>
       <c r="G385" s="9"/>
     </row>
-    <row r="386" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E386" s="8"/>
       <c r="G386" s="9"/>
     </row>
-    <row r="387" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E387" s="8"/>
       <c r="G387" s="9"/>
     </row>
-    <row r="388" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E388" s="8"/>
       <c r="G388" s="9"/>
     </row>
-    <row r="389" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E389" s="8"/>
       <c r="G389" s="9"/>
     </row>
-    <row r="390" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E390" s="8"/>
       <c r="G390" s="9"/>
     </row>
-    <row r="391" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E391" s="8"/>
       <c r="G391" s="9"/>
     </row>
-    <row r="392" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E392" s="8"/>
       <c r="G392" s="9"/>
     </row>
-    <row r="393" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E393" s="8"/>
       <c r="G393" s="9"/>
     </row>
-    <row r="394" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E394" s="8"/>
       <c r="G394" s="9"/>
     </row>
-    <row r="395" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E395" s="8"/>
       <c r="G395" s="9"/>
     </row>
-    <row r="396" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E396" s="8"/>
       <c r="G396" s="9"/>
     </row>
-    <row r="397" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E397" s="8"/>
       <c r="G397" s="9"/>
     </row>
-    <row r="398" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E398" s="8"/>
       <c r="G398" s="9"/>
     </row>
-    <row r="399" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E399" s="8"/>
       <c r="G399" s="9"/>
     </row>
-    <row r="400" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E400" s="8"/>
       <c r="G400" s="9"/>
     </row>
-    <row r="401" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E401" s="8"/>
       <c r="G401" s="9"/>
     </row>
-    <row r="402" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E402" s="8"/>
       <c r="G402" s="9"/>
     </row>
-    <row r="403" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E403" s="8"/>
       <c r="G403" s="9"/>
     </row>
-    <row r="404" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E404" s="8"/>
       <c r="G404" s="9"/>
     </row>
-    <row r="405" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E405" s="8"/>
       <c r="G405" s="9"/>
     </row>
-    <row r="406" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E406" s="8"/>
       <c r="G406" s="9"/>
     </row>
-    <row r="407" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E407" s="8"/>
       <c r="G407" s="9"/>
     </row>
-    <row r="408" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E408" s="8"/>
       <c r="G408" s="9"/>
     </row>
-    <row r="409" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E409" s="8"/>
       <c r="G409" s="9"/>
     </row>
-    <row r="410" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E410" s="8"/>
       <c r="G410" s="9"/>
     </row>
-    <row r="411" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E411" s="8"/>
       <c r="G411" s="9"/>
     </row>
-    <row r="412" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E412" s="8"/>
       <c r="G412" s="9"/>
     </row>
-    <row r="413" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E413" s="8"/>
       <c r="G413" s="9"/>
     </row>
-    <row r="414" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E414" s="8"/>
       <c r="G414" s="9"/>
     </row>
-    <row r="415" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E415" s="8"/>
       <c r="G415" s="9"/>
     </row>
-    <row r="416" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E416" s="8"/>
       <c r="G416" s="9"/>
     </row>
-    <row r="417" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E417" s="8"/>
       <c r="G417" s="9"/>
     </row>
-    <row r="418" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E418" s="8"/>
       <c r="G418" s="9"/>
     </row>
-    <row r="419" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E419" s="8"/>
       <c r="G419" s="9"/>
     </row>
-    <row r="420" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E420" s="8"/>
       <c r="G420" s="9"/>
     </row>
-    <row r="421" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E421" s="8"/>
       <c r="G421" s="9"/>
     </row>
-    <row r="422" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E422" s="8"/>
       <c r="G422" s="9"/>
     </row>
-    <row r="423" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E423" s="8"/>
       <c r="G423" s="9"/>
     </row>
-    <row r="424" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E424" s="8"/>
       <c r="G424" s="9"/>
     </row>
-    <row r="425" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E425" s="8"/>
       <c r="G425" s="9"/>
     </row>
-    <row r="426" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E426" s="8"/>
       <c r="G426" s="9"/>
     </row>
-    <row r="427" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E427" s="8"/>
       <c r="G427" s="9"/>
     </row>
-    <row r="428" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E428" s="8"/>
       <c r="G428" s="9"/>
     </row>
-    <row r="429" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E429" s="8"/>
       <c r="G429" s="9"/>
     </row>
-    <row r="430" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E430" s="8"/>
       <c r="G430" s="9"/>
     </row>
-    <row r="431" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E431" s="8"/>
       <c r="G431" s="9"/>
     </row>
-    <row r="432" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E432" s="8"/>
       <c r="G432" s="9"/>
     </row>
-    <row r="433" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E433" s="8"/>
       <c r="G433" s="9"/>
     </row>
-    <row r="434" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E434" s="8"/>
       <c r="G434" s="9"/>
     </row>
-    <row r="435" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E435" s="8"/>
       <c r="G435" s="9"/>
     </row>
-    <row r="436" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E436" s="8"/>
       <c r="G436" s="9"/>
     </row>
-    <row r="437" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E437" s="8"/>
       <c r="G437" s="9"/>
     </row>
-    <row r="438" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E438" s="8"/>
       <c r="G438" s="9"/>
     </row>
-    <row r="439" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E439" s="8"/>
       <c r="G439" s="9"/>
     </row>
-    <row r="440" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E440" s="8"/>
       <c r="G440" s="9"/>
     </row>
-    <row r="441" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E441" s="8"/>
       <c r="G441" s="9"/>
     </row>
-    <row r="442" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E442" s="8"/>
       <c r="G442" s="9"/>
     </row>
-    <row r="443" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E443" s="8"/>
       <c r="G443" s="9"/>
     </row>
-    <row r="444" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E444" s="8"/>
       <c r="G444" s="9"/>
     </row>
-    <row r="445" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E445" s="8"/>
       <c r="G445" s="9"/>
     </row>
-    <row r="446" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E446" s="8"/>
       <c r="G446" s="9"/>
     </row>
-    <row r="447" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E447" s="8"/>
       <c r="G447" s="9"/>
     </row>
-    <row r="448" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E448" s="8"/>
       <c r="G448" s="9"/>
     </row>
-    <row r="449" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E449" s="8"/>
       <c r="G449" s="9"/>
     </row>
-    <row r="450" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E450" s="8"/>
       <c r="G450" s="9"/>
     </row>
-    <row r="451" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E451" s="8"/>
       <c r="G451" s="9"/>
     </row>
-    <row r="452" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E452" s="8"/>
       <c r="G452" s="9"/>
     </row>
-    <row r="453" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E453" s="8"/>
       <c r="G453" s="9"/>
     </row>
-    <row r="454" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E454" s="8"/>
       <c r="G454" s="9"/>
     </row>
-    <row r="455" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E455" s="8"/>
       <c r="G455" s="9"/>
     </row>
-    <row r="456" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E456" s="8"/>
       <c r="G456" s="9"/>
     </row>
-    <row r="457" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E457" s="8"/>
       <c r="G457" s="9"/>
     </row>
-    <row r="458" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E458" s="8"/>
       <c r="G458" s="9"/>
     </row>
-    <row r="459" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E459" s="8"/>
       <c r="G459" s="9"/>
     </row>
-    <row r="460" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E460" s="8"/>
       <c r="G460" s="9"/>
     </row>
-    <row r="461" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E461" s="8"/>
       <c r="G461" s="9"/>
     </row>
-    <row r="462" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E462" s="8"/>
       <c r="G462" s="9"/>
     </row>
-    <row r="463" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E463" s="8"/>
       <c r="G463" s="9"/>
     </row>
-    <row r="464" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E464" s="8"/>
       <c r="G464" s="9"/>
     </row>
-    <row r="465" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E465" s="8"/>
       <c r="G465" s="9"/>
     </row>
-    <row r="466" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E466" s="8"/>
       <c r="G466" s="9"/>
     </row>
-    <row r="467" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E467" s="8"/>
       <c r="G467" s="9"/>
     </row>
-    <row r="468" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E468" s="8"/>
       <c r="G468" s="9"/>
     </row>
-    <row r="469" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E469" s="8"/>
       <c r="G469" s="9"/>
     </row>
-    <row r="470" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E470" s="8"/>
       <c r="G470" s="9"/>
     </row>
-    <row r="471" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E471" s="8"/>
       <c r="G471" s="9"/>
     </row>
-    <row r="472" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E472" s="8"/>
       <c r="G472" s="9"/>
     </row>
-    <row r="473" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E473" s="8"/>
       <c r="G473" s="9"/>
     </row>
-    <row r="474" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E474" s="8"/>
       <c r="G474" s="9"/>
     </row>
-    <row r="475" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E475" s="8"/>
       <c r="G475" s="9"/>
     </row>
-    <row r="476" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E476" s="8"/>
       <c r="G476" s="9"/>
     </row>
-    <row r="477" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E477" s="8"/>
       <c r="G477" s="9"/>
     </row>
-    <row r="478" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E478" s="8"/>
       <c r="G478" s="9"/>
     </row>
-    <row r="479" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E479" s="8"/>
       <c r="G479" s="9"/>
     </row>
-    <row r="480" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E480" s="8"/>
       <c r="G480" s="9"/>
     </row>
-    <row r="481" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E481" s="8"/>
       <c r="G481" s="9"/>
     </row>
-    <row r="482" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E482" s="8"/>
       <c r="G482" s="9"/>
     </row>
-    <row r="483" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E483" s="8"/>
       <c r="G483" s="9"/>
     </row>
-    <row r="484" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E484" s="8"/>
       <c r="G484" s="9"/>
     </row>
-    <row r="485" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E485" s="8"/>
       <c r="G485" s="9"/>
     </row>
-    <row r="486" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E486" s="8"/>
       <c r="G486" s="9"/>
     </row>
-    <row r="487" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E487" s="8"/>
       <c r="G487" s="9"/>
     </row>
-    <row r="488" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E488" s="8"/>
       <c r="G488" s="9"/>
     </row>
-    <row r="489" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E489" s="8"/>
       <c r="G489" s="9"/>
     </row>
-    <row r="490" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E490" s="8"/>
       <c r="G490" s="9"/>
     </row>
-    <row r="491" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E491" s="8"/>
       <c r="G491" s="9"/>
     </row>
-    <row r="492" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E492" s="8"/>
       <c r="G492" s="9"/>
     </row>
-    <row r="493" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E493" s="8"/>
       <c r="G493" s="9"/>
     </row>
-    <row r="494" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E494" s="8"/>
       <c r="G494" s="9"/>
     </row>
-    <row r="495" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E495" s="8"/>
       <c r="G495" s="9"/>
     </row>
-    <row r="496" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E496" s="8"/>
       <c r="G496" s="9"/>
     </row>
-    <row r="497" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E497" s="8"/>
       <c r="G497" s="9"/>
     </row>
-    <row r="498" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E498" s="8"/>
       <c r="G498" s="9"/>
     </row>
-    <row r="499" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E499" s="8"/>
       <c r="G499" s="9"/>
     </row>
-    <row r="500" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E500" s="8"/>
       <c r="G500" s="9"/>
     </row>
-    <row r="501" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E501" s="8"/>
       <c r="G501" s="9"/>
     </row>
-    <row r="502" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E502" s="8"/>
       <c r="G502" s="9"/>
     </row>
-    <row r="503" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E503" s="8"/>
       <c r="G503" s="9"/>
     </row>
-    <row r="504" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E504" s="8"/>
       <c r="G504" s="9"/>
     </row>
-    <row r="505" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E505" s="8"/>
       <c r="G505" s="9"/>
     </row>
-    <row r="506" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E506" s="8"/>
       <c r="G506" s="9"/>
     </row>
-    <row r="507" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E507" s="8"/>
       <c r="G507" s="9"/>
     </row>
-    <row r="508" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E508" s="8"/>
       <c r="G508" s="9"/>
     </row>
-    <row r="509" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E509" s="8"/>
       <c r="G509" s="9"/>
     </row>
-    <row r="510" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E510" s="8"/>
       <c r="G510" s="9"/>
     </row>
-    <row r="511" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E511" s="8"/>
       <c r="G511" s="9"/>
     </row>
-    <row r="512" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E512" s="8"/>
       <c r="G512" s="9"/>
     </row>
-    <row r="513" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E513" s="8"/>
       <c r="G513" s="9"/>
     </row>
-    <row r="514" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E514" s="8"/>
       <c r="G514" s="9"/>
     </row>
-    <row r="515" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E515" s="8"/>
       <c r="G515" s="9"/>
     </row>
-    <row r="516" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E516" s="8"/>
       <c r="G516" s="9"/>
     </row>
-    <row r="517" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E517" s="8"/>
       <c r="G517" s="9"/>
     </row>
-    <row r="518" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E518" s="8"/>
       <c r="G518" s="9"/>
     </row>
-    <row r="519" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E519" s="8"/>
       <c r="G519" s="9"/>
     </row>
-    <row r="520" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E520" s="8"/>
       <c r="G520" s="9"/>
     </row>
-    <row r="521" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E521" s="8"/>
       <c r="G521" s="9"/>
     </row>
-    <row r="522" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E522" s="8"/>
       <c r="G522" s="9"/>
     </row>
-    <row r="523" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E523" s="8"/>
       <c r="G523" s="9"/>
     </row>
-    <row r="524" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E524" s="8"/>
       <c r="G524" s="9"/>
     </row>
-    <row r="525" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E525" s="8"/>
       <c r="G525" s="9"/>
     </row>
-    <row r="526" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E526" s="8"/>
       <c r="G526" s="9"/>
     </row>
-    <row r="527" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E527" s="8"/>
       <c r="G527" s="9"/>
     </row>
-    <row r="528" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E528" s="8"/>
       <c r="G528" s="9"/>
     </row>
-    <row r="529" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E529" s="8"/>
       <c r="G529" s="9"/>
     </row>
-    <row r="530" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E530" s="8"/>
       <c r="G530" s="9"/>
     </row>
-    <row r="531" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E531" s="8"/>
       <c r="G531" s="9"/>
     </row>
-    <row r="532" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E532" s="8"/>
       <c r="G532" s="9"/>
     </row>
-    <row r="533" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E533" s="8"/>
       <c r="G533" s="9"/>
     </row>
-    <row r="534" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E534" s="8"/>
       <c r="G534" s="9"/>
     </row>
-    <row r="535" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E535" s="8"/>
       <c r="G535" s="9"/>
     </row>
-    <row r="536" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E536" s="8"/>
       <c r="G536" s="9"/>
     </row>
-    <row r="537" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E537" s="8"/>
       <c r="G537" s="9"/>
     </row>
-    <row r="538" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E538" s="8"/>
       <c r="G538" s="9"/>
     </row>
-    <row r="539" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E539" s="8"/>
       <c r="G539" s="9"/>
     </row>
-    <row r="540" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E540" s="8"/>
       <c r="G540" s="9"/>
     </row>
-    <row r="541" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E541" s="8"/>
       <c r="G541" s="9"/>
     </row>
-    <row r="542" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E542" s="8"/>
       <c r="G542" s="9"/>
     </row>
-    <row r="543" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E543" s="8"/>
       <c r="G543" s="9"/>
     </row>
-    <row r="544" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E544" s="8"/>
       <c r="G544" s="9"/>
     </row>
-    <row r="545" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E545" s="8"/>
       <c r="G545" s="9"/>
     </row>
-    <row r="546" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E546" s="8"/>
       <c r="G546" s="9"/>
     </row>
-    <row r="547" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E547" s="8"/>
       <c r="G547" s="9"/>
     </row>
-    <row r="548" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E548" s="8"/>
       <c r="G548" s="9"/>
     </row>
-    <row r="549" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E549" s="8"/>
       <c r="G549" s="9"/>
     </row>
-    <row r="550" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E550" s="8"/>
       <c r="G550" s="9"/>
     </row>
-    <row r="551" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E551" s="8"/>
       <c r="G551" s="9"/>
     </row>
-    <row r="552" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E552" s="8"/>
       <c r="G552" s="9"/>
     </row>
-    <row r="553" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E553" s="8"/>
       <c r="G553" s="9"/>
     </row>
-    <row r="554" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E554" s="8"/>
       <c r="G554" s="9"/>
     </row>
-    <row r="555" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E555" s="8"/>
       <c r="G555" s="9"/>
     </row>
-    <row r="556" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E556" s="8"/>
       <c r="G556" s="9"/>
     </row>
-    <row r="557" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E557" s="8"/>
       <c r="G557" s="9"/>
     </row>
-    <row r="558" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E558" s="8"/>
       <c r="G558" s="9"/>
     </row>
-    <row r="559" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E559" s="8"/>
       <c r="G559" s="9"/>
     </row>
-    <row r="560" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E560" s="8"/>
       <c r="G560" s="9"/>
     </row>
-    <row r="561" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E561" s="8"/>
       <c r="G561" s="9"/>
     </row>
-    <row r="562" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E562" s="8"/>
       <c r="G562" s="9"/>
     </row>
-    <row r="563" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E563" s="8"/>
       <c r="G563" s="9"/>
     </row>
-    <row r="564" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E564" s="8"/>
       <c r="G564" s="9"/>
     </row>
-    <row r="565" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E565" s="8"/>
       <c r="G565" s="9"/>
     </row>
-    <row r="566" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E566" s="8"/>
       <c r="G566" s="9"/>
     </row>
-    <row r="567" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E567" s="8"/>
       <c r="G567" s="9"/>
     </row>
-    <row r="568" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E568" s="8"/>
       <c r="G568" s="9"/>
     </row>
-    <row r="569" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E569" s="8"/>
       <c r="G569" s="9"/>
     </row>
-    <row r="570" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E570" s="8"/>
       <c r="G570" s="9"/>
     </row>
-    <row r="571" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E571" s="8"/>
       <c r="G571" s="9"/>
     </row>
-    <row r="572" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E572" s="8"/>
       <c r="G572" s="9"/>
     </row>
-    <row r="573" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E573" s="8"/>
       <c r="G573" s="9"/>
     </row>
-    <row r="574" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E574" s="8"/>
       <c r="G574" s="9"/>
     </row>
-    <row r="575" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E575" s="8"/>
       <c r="G575" s="9"/>
     </row>
-    <row r="576" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E576" s="8"/>
       <c r="G576" s="9"/>
     </row>
-    <row r="577" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E577" s="8"/>
       <c r="G577" s="9"/>
     </row>
-    <row r="578" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E578" s="8"/>
       <c r="G578" s="9"/>
     </row>
-    <row r="579" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E579" s="8"/>
       <c r="G579" s="9"/>
     </row>
-    <row r="580" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E580" s="8"/>
       <c r="G580" s="9"/>
     </row>
-    <row r="581" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E581" s="8"/>
       <c r="G581" s="9"/>
     </row>
-    <row r="582" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E582" s="8"/>
       <c r="G582" s="9"/>
     </row>
-    <row r="583" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E583" s="8"/>
       <c r="G583" s="9"/>
     </row>
-    <row r="584" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E584" s="8"/>
       <c r="G584" s="9"/>
     </row>
-    <row r="585" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E585" s="8"/>
       <c r="G585" s="9"/>
     </row>
-    <row r="586" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E586" s="8"/>
       <c r="G586" s="9"/>
     </row>
-    <row r="587" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E587" s="8"/>
       <c r="G587" s="9"/>
     </row>
-    <row r="588" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E588" s="8"/>
       <c r="G588" s="9"/>
     </row>
-    <row r="589" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E589" s="8"/>
       <c r="G589" s="9"/>
     </row>
-    <row r="590" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E590" s="8"/>
       <c r="G590" s="9"/>
     </row>
-    <row r="591" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E591" s="8"/>
       <c r="G591" s="9"/>
     </row>
-    <row r="592" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E592" s="8"/>
       <c r="G592" s="9"/>
     </row>
-    <row r="593" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E593" s="8"/>
       <c r="G593" s="9"/>
     </row>
-    <row r="594" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E594" s="8"/>
       <c r="G594" s="9"/>
     </row>
-    <row r="595" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E595" s="8"/>
       <c r="G595" s="9"/>
     </row>
-    <row r="596" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E596" s="8"/>
       <c r="G596" s="9"/>
     </row>
-    <row r="597" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E597" s="8"/>
       <c r="G597" s="9"/>
     </row>
-    <row r="598" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E598" s="8"/>
       <c r="G598" s="9"/>
     </row>
-    <row r="599" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E599" s="8"/>
       <c r="G599" s="9"/>
     </row>
-    <row r="600" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E600" s="8"/>
       <c r="G600" s="9"/>
     </row>
-    <row r="601" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E601" s="8"/>
       <c r="G601" s="9"/>
     </row>
-    <row r="602" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E602" s="8"/>
       <c r="G602" s="9"/>
     </row>
-    <row r="603" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E603" s="8"/>
       <c r="G603" s="9"/>
     </row>
-    <row r="604" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E604" s="8"/>
       <c r="G604" s="9"/>
     </row>
-    <row r="605" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E605" s="8"/>
       <c r="G605" s="9"/>
     </row>
-    <row r="606" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E606" s="8"/>
       <c r="G606" s="9"/>
     </row>
-    <row r="607" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E607" s="8"/>
       <c r="G607" s="9"/>
     </row>
-    <row r="608" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E608" s="8"/>
       <c r="G608" s="9"/>
     </row>
-    <row r="609" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E609" s="8"/>
       <c r="G609" s="9"/>
     </row>
-    <row r="610" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E610" s="8"/>
       <c r="G610" s="9"/>
     </row>
-    <row r="611" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E611" s="8"/>
       <c r="G611" s="9"/>
     </row>
-    <row r="612" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E612" s="8"/>
       <c r="G612" s="9"/>
     </row>
-    <row r="613" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E613" s="8"/>
       <c r="G613" s="9"/>
     </row>
-    <row r="614" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E614" s="8"/>
       <c r="G614" s="9"/>
     </row>
-    <row r="615" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E615" s="8"/>
       <c r="G615" s="9"/>
     </row>
-    <row r="616" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E616" s="8"/>
       <c r="G616" s="9"/>
     </row>
-    <row r="617" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E617" s="8"/>
       <c r="G617" s="9"/>
     </row>
-    <row r="618" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E618" s="8"/>
       <c r="G618" s="9"/>
     </row>
-    <row r="619" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E619" s="8"/>
       <c r="G619" s="9"/>
     </row>
-    <row r="620" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E620" s="8"/>
       <c r="G620" s="9"/>
     </row>
-    <row r="621" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E621" s="8"/>
       <c r="G621" s="9"/>
     </row>
-    <row r="622" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E622" s="8"/>
       <c r="G622" s="9"/>
     </row>
-    <row r="623" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E623" s="8"/>
       <c r="G623" s="9"/>
     </row>
-    <row r="624" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E624" s="8"/>
       <c r="G624" s="9"/>
     </row>
-    <row r="625" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E625" s="8"/>
       <c r="G625" s="9"/>
     </row>
-    <row r="626" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E626" s="8"/>
       <c r="G626" s="9"/>
     </row>
-    <row r="627" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E627" s="8"/>
       <c r="G627" s="9"/>
     </row>
-    <row r="628" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E628" s="8"/>
       <c r="G628" s="9"/>
     </row>
-    <row r="629" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E629" s="8"/>
       <c r="G629" s="9"/>
     </row>
-    <row r="630" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E630" s="8"/>
       <c r="G630" s="9"/>
     </row>
-    <row r="631" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E631" s="8"/>
       <c r="G631" s="9"/>
     </row>
-    <row r="632" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E632" s="8"/>
       <c r="G632" s="9"/>
     </row>
-    <row r="633" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E633" s="8"/>
       <c r="G633" s="9"/>
     </row>
-    <row r="634" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E634" s="8"/>
       <c r="G634" s="9"/>
     </row>
-    <row r="635" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E635" s="8"/>
       <c r="G635" s="9"/>
     </row>
-    <row r="636" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E636" s="8"/>
       <c r="G636" s="9"/>
     </row>
-    <row r="637" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E637" s="8"/>
       <c r="G637" s="9"/>
     </row>
-    <row r="638" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E638" s="8"/>
       <c r="G638" s="9"/>
     </row>
-    <row r="639" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E639" s="8"/>
       <c r="G639" s="9"/>
     </row>
-    <row r="640" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E640" s="8"/>
       <c r="G640" s="9"/>
     </row>
-    <row r="641" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E641" s="8"/>
       <c r="G641" s="9"/>
     </row>
-    <row r="642" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E642" s="8"/>
       <c r="G642" s="9"/>
     </row>
-    <row r="643" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E643" s="8"/>
       <c r="G643" s="9"/>
     </row>
-    <row r="644" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E644" s="8"/>
       <c r="G644" s="9"/>
     </row>
-    <row r="645" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E645" s="8"/>
       <c r="G645" s="9"/>
     </row>
-    <row r="646" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E646" s="8"/>
       <c r="G646" s="9"/>
     </row>
-    <row r="647" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E647" s="8"/>
       <c r="G647" s="9"/>
     </row>
-    <row r="648" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E648" s="8"/>
       <c r="G648" s="9"/>
     </row>
-    <row r="649" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E649" s="8"/>
       <c r="G649" s="9"/>
     </row>
-    <row r="650" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E650" s="8"/>
       <c r="G650" s="9"/>
     </row>
-    <row r="651" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E651" s="8"/>
       <c r="G651" s="9"/>
     </row>
-    <row r="652" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E652" s="8"/>
       <c r="G652" s="9"/>
     </row>
-    <row r="653" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E653" s="8"/>
       <c r="G653" s="9"/>
     </row>
-    <row r="654" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E654" s="8"/>
       <c r="G654" s="9"/>
     </row>
-    <row r="655" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E655" s="8"/>
       <c r="G655" s="9"/>
     </row>
-    <row r="656" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E656" s="8"/>
       <c r="G656" s="9"/>
     </row>
-    <row r="657" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E657" s="8"/>
       <c r="G657" s="9"/>
     </row>
-    <row r="658" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E658" s="8"/>
       <c r="G658" s="9"/>
     </row>
-    <row r="659" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E659" s="8"/>
       <c r="G659" s="9"/>
     </row>
-    <row r="660" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E660" s="8"/>
       <c r="G660" s="9"/>
     </row>
-    <row r="661" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E661" s="8"/>
       <c r="G661" s="9"/>
     </row>
-    <row r="662" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E662" s="8"/>
       <c r="G662" s="9"/>
     </row>
-    <row r="663" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E663" s="8"/>
       <c r="G663" s="9"/>
     </row>
-    <row r="664" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E664" s="8"/>
       <c r="G664" s="9"/>
     </row>
-    <row r="665" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E665" s="8"/>
       <c r="G665" s="9"/>
     </row>
-    <row r="666" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E666" s="8"/>
       <c r="G666" s="9"/>
     </row>
-    <row r="667" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E667" s="8"/>
       <c r="G667" s="9"/>
     </row>
-    <row r="668" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E668" s="8"/>
       <c r="G668" s="9"/>
     </row>
-    <row r="669" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E669" s="8"/>
       <c r="G669" s="9"/>
     </row>
-    <row r="670" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E670" s="8"/>
       <c r="G670" s="9"/>
     </row>
-    <row r="671" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E671" s="8"/>
       <c r="G671" s="9"/>
     </row>
-    <row r="672" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E672" s="8"/>
       <c r="G672" s="9"/>
     </row>
-    <row r="673" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E673" s="8"/>
       <c r="G673" s="9"/>
     </row>
-    <row r="674" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E674" s="8"/>
       <c r="G674" s="9"/>
     </row>
-    <row r="675" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E675" s="8"/>
       <c r="G675" s="9"/>
     </row>
-    <row r="676" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E676" s="8"/>
       <c r="G676" s="9"/>
     </row>
-    <row r="677" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E677" s="8"/>
       <c r="G677" s="9"/>
     </row>
-    <row r="678" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E678" s="8"/>
       <c r="G678" s="9"/>
     </row>
-    <row r="679" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E679" s="8"/>
       <c r="G679" s="9"/>
     </row>
-    <row r="680" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E680" s="8"/>
       <c r="G680" s="9"/>
     </row>
-    <row r="681" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E681" s="8"/>
       <c r="G681" s="9"/>
     </row>
-    <row r="682" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E682" s="8"/>
       <c r="G682" s="9"/>
     </row>
-    <row r="683" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E683" s="8"/>
       <c r="G683" s="9"/>
     </row>
-    <row r="684" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E684" s="8"/>
       <c r="G684" s="9"/>
     </row>
-    <row r="685" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E685" s="8"/>
       <c r="G685" s="9"/>
     </row>
-    <row r="686" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E686" s="8"/>
       <c r="G686" s="9"/>
     </row>
-    <row r="687" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E687" s="8"/>
       <c r="G687" s="9"/>
     </row>
-    <row r="688" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E688" s="8"/>
       <c r="G688" s="9"/>
     </row>
-    <row r="689" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E689" s="8"/>
       <c r="G689" s="9"/>
     </row>
-    <row r="690" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E690" s="8"/>
       <c r="G690" s="9"/>
     </row>
-    <row r="691" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E691" s="8"/>
       <c r="G691" s="9"/>
     </row>
-    <row r="692" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E692" s="8"/>
       <c r="G692" s="9"/>
     </row>
-    <row r="693" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E693" s="8"/>
       <c r="G693" s="9"/>
     </row>
-    <row r="694" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E694" s="8"/>
       <c r="G694" s="9"/>
     </row>
-    <row r="695" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E695" s="8"/>
       <c r="G695" s="9"/>
     </row>
-    <row r="696" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E696" s="8"/>
       <c r="G696" s="9"/>
     </row>
-    <row r="697" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E697" s="8"/>
       <c r="G697" s="9"/>
     </row>
-    <row r="698" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E698" s="8"/>
       <c r="G698" s="9"/>
     </row>
-    <row r="699" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E699" s="8"/>
       <c r="G699" s="9"/>
     </row>
-    <row r="700" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E700" s="8"/>
       <c r="G700" s="9"/>
     </row>
-    <row r="701" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E701" s="8"/>
       <c r="G701" s="9"/>
     </row>
-    <row r="702" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E702" s="8"/>
       <c r="G702" s="9"/>
     </row>
-    <row r="703" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E703" s="8"/>
       <c r="G703" s="9"/>
     </row>
-    <row r="704" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E704" s="8"/>
       <c r="G704" s="9"/>
     </row>
-    <row r="705" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E705" s="8"/>
       <c r="G705" s="9"/>
     </row>
-    <row r="706" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E706" s="8"/>
       <c r="G706" s="9"/>
     </row>
-    <row r="707" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E707" s="8"/>
       <c r="G707" s="9"/>
     </row>
-    <row r="708" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E708" s="8"/>
       <c r="G708" s="9"/>
     </row>
-    <row r="709" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E709" s="8"/>
       <c r="G709" s="9"/>
     </row>
-    <row r="710" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E710" s="8"/>
       <c r="G710" s="9"/>
     </row>
-    <row r="711" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E711" s="8"/>
       <c r="G711" s="9"/>
     </row>
-    <row r="712" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E712" s="8"/>
       <c r="G712" s="9"/>
     </row>
-    <row r="713" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E713" s="8"/>
       <c r="G713" s="9"/>
     </row>
-    <row r="714" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E714" s="8"/>
       <c r="G714" s="9"/>
     </row>
-    <row r="715" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E715" s="8"/>
       <c r="G715" s="9"/>
     </row>
-    <row r="716" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E716" s="8"/>
       <c r="G716" s="9"/>
     </row>
-    <row r="717" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E717" s="8"/>
       <c r="G717" s="9"/>
     </row>
-    <row r="718" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E718" s="8"/>
       <c r="G718" s="9"/>
     </row>
-    <row r="719" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E719" s="8"/>
       <c r="G719" s="9"/>
     </row>
-    <row r="720" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E720" s="8"/>
       <c r="G720" s="9"/>
     </row>
-    <row r="721" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E721" s="8"/>
       <c r="G721" s="9"/>
     </row>
-    <row r="722" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E722" s="8"/>
       <c r="G722" s="9"/>
     </row>
-    <row r="723" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E723" s="8"/>
       <c r="G723" s="9"/>
     </row>
-    <row r="724" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E724" s="8"/>
       <c r="G724" s="9"/>
     </row>
-    <row r="725" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E725" s="8"/>
       <c r="G725" s="9"/>
     </row>
-    <row r="726" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E726" s="8"/>
       <c r="G726" s="9"/>
     </row>
-    <row r="727" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E727" s="8"/>
       <c r="G727" s="9"/>
     </row>
-    <row r="728" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E728" s="8"/>
       <c r="G728" s="9"/>
     </row>
-    <row r="729" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E729" s="8"/>
       <c r="G729" s="9"/>
     </row>
-    <row r="730" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E730" s="8"/>
       <c r="G730" s="9"/>
     </row>
-    <row r="731" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E731" s="8"/>
       <c r="G731" s="9"/>
     </row>
-    <row r="732" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E732" s="8"/>
       <c r="G732" s="9"/>
     </row>
-    <row r="733" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E733" s="8"/>
       <c r="G733" s="9"/>
     </row>
-    <row r="734" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E734" s="8"/>
       <c r="G734" s="9"/>
     </row>
-    <row r="735" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E735" s="8"/>
       <c r="G735" s="9"/>
     </row>
-    <row r="736" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E736" s="8"/>
       <c r="G736" s="9"/>
     </row>
-    <row r="737" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E737" s="8"/>
       <c r="G737" s="9"/>
     </row>
-    <row r="738" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E738" s="8"/>
       <c r="G738" s="9"/>
     </row>
-    <row r="739" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E739" s="8"/>
       <c r="G739" s="9"/>
     </row>
-    <row r="740" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E740" s="8"/>
       <c r="G740" s="9"/>
     </row>
-    <row r="741" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E741" s="8"/>
       <c r="G741" s="9"/>
     </row>
-    <row r="742" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E742" s="8"/>
       <c r="G742" s="9"/>
     </row>
-    <row r="743" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E743" s="8"/>
       <c r="G743" s="9"/>
     </row>
-    <row r="744" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E744" s="8"/>
       <c r="G744" s="9"/>
     </row>
-    <row r="745" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E745" s="8"/>
       <c r="G745" s="9"/>
     </row>
-    <row r="746" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E746" s="8"/>
       <c r="G746" s="9"/>
     </row>
-    <row r="747" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E747" s="8"/>
       <c r="G747" s="9"/>
     </row>
-    <row r="748" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E748" s="8"/>
       <c r="G748" s="9"/>
     </row>
-    <row r="749" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E749" s="8"/>
       <c r="G749" s="9"/>
     </row>
-    <row r="750" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E750" s="8"/>
       <c r="G750" s="9"/>
     </row>
-    <row r="751" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E751" s="8"/>
       <c r="G751" s="9"/>
     </row>
-    <row r="752" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E752" s="8"/>
       <c r="G752" s="9"/>
     </row>
-    <row r="753" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E753" s="8"/>
       <c r="G753" s="9"/>
     </row>
-    <row r="754" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E754" s="8"/>
       <c r="G754" s="9"/>
     </row>
-    <row r="755" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E755" s="8"/>
       <c r="G755" s="9"/>
     </row>
-    <row r="756" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E756" s="8"/>
       <c r="G756" s="9"/>
     </row>
-    <row r="757" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E757" s="8"/>
       <c r="G757" s="9"/>
     </row>
-    <row r="758" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E758" s="8"/>
       <c r="G758" s="9"/>
     </row>
-    <row r="759" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E759" s="8"/>
       <c r="G759" s="9"/>
     </row>
-    <row r="760" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E760" s="8"/>
       <c r="G760" s="9"/>
     </row>
-    <row r="761" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E761" s="8"/>
       <c r="G761" s="9"/>
     </row>
-    <row r="762" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E762" s="8"/>
       <c r="G762" s="9"/>
     </row>
-    <row r="763" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E763" s="8"/>
       <c r="G763" s="9"/>
     </row>
-    <row r="764" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E764" s="8"/>
       <c r="G764" s="9"/>
     </row>
-    <row r="765" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E765" s="8"/>
       <c r="G765" s="9"/>
     </row>
-    <row r="766" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E766" s="8"/>
       <c r="G766" s="9"/>
     </row>
-    <row r="767" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E767" s="8"/>
       <c r="G767" s="9"/>
     </row>
-    <row r="768" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E768" s="8"/>
       <c r="G768" s="9"/>
     </row>
-    <row r="769" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E769" s="8"/>
       <c r="G769" s="9"/>
     </row>
-    <row r="770" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E770" s="8"/>
       <c r="G770" s="9"/>
     </row>
-    <row r="771" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E771" s="8"/>
       <c r="G771" s="9"/>
     </row>
-    <row r="772" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E772" s="8"/>
       <c r="G772" s="9"/>
     </row>
-    <row r="773" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E773" s="8"/>
       <c r="G773" s="9"/>
     </row>
-    <row r="774" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E774" s="8"/>
       <c r="G774" s="9"/>
     </row>
-    <row r="775" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E775" s="8"/>
       <c r="G775" s="9"/>
     </row>
-    <row r="776" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E776" s="8"/>
       <c r="G776" s="9"/>
     </row>
-    <row r="777" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E777" s="8"/>
       <c r="G777" s="9"/>
     </row>
-    <row r="778" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E778" s="8"/>
       <c r="G778" s="9"/>
     </row>
-    <row r="779" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E779" s="8"/>
       <c r="G779" s="9"/>
     </row>
-    <row r="780" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E780" s="8"/>
       <c r="G780" s="9"/>
     </row>
-    <row r="781" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E781" s="8"/>
       <c r="G781" s="9"/>
     </row>
-    <row r="782" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E782" s="8"/>
       <c r="G782" s="9"/>
     </row>
-    <row r="783" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E783" s="8"/>
       <c r="G783" s="9"/>
     </row>
-    <row r="784" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E784" s="8"/>
       <c r="G784" s="9"/>
     </row>
-    <row r="785" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E785" s="8"/>
       <c r="G785" s="9"/>
     </row>
-    <row r="786" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E786" s="8"/>
       <c r="G786" s="9"/>
     </row>
-    <row r="787" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E787" s="8"/>
       <c r="G787" s="9"/>
     </row>
-    <row r="788" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E788" s="8"/>
       <c r="G788" s="9"/>
     </row>
-    <row r="789" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E789" s="8"/>
       <c r="G789" s="9"/>
     </row>
-    <row r="790" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E790" s="8"/>
       <c r="G790" s="9"/>
     </row>
-    <row r="791" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E791" s="8"/>
       <c r="G791" s="9"/>
     </row>
-    <row r="792" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E792" s="8"/>
       <c r="G792" s="9"/>
     </row>
-    <row r="793" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E793" s="8"/>
       <c r="G793" s="9"/>
     </row>
-    <row r="794" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E794" s="8"/>
       <c r="G794" s="9"/>
     </row>
-    <row r="795" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E795" s="8"/>
       <c r="G795" s="9"/>
     </row>
-    <row r="796" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E796" s="8"/>
       <c r="G796" s="9"/>
     </row>
-    <row r="797" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E797" s="8"/>
       <c r="G797" s="9"/>
     </row>
-    <row r="798" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E798" s="8"/>
       <c r="G798" s="9"/>
     </row>
-    <row r="799" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E799" s="8"/>
       <c r="G799" s="9"/>
     </row>
-    <row r="800" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E800" s="8"/>
       <c r="G800" s="9"/>
     </row>
-    <row r="801" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E801" s="8"/>
       <c r="G801" s="9"/>
     </row>
-    <row r="802" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E802" s="8"/>
       <c r="G802" s="9"/>
     </row>
-    <row r="803" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E803" s="8"/>
       <c r="G803" s="9"/>
     </row>
-    <row r="804" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E804" s="8"/>
       <c r="G804" s="9"/>
     </row>
-    <row r="805" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E805" s="8"/>
       <c r="G805" s="9"/>
     </row>
-    <row r="806" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E806" s="8"/>
       <c r="G806" s="9"/>
     </row>
-    <row r="807" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E807" s="8"/>
       <c r="G807" s="9"/>
     </row>
-    <row r="808" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E808" s="8"/>
       <c r="G808" s="9"/>
     </row>
-    <row r="809" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E809" s="8"/>
       <c r="G809" s="9"/>
     </row>
-    <row r="810" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E810" s="8"/>
       <c r="G810" s="9"/>
     </row>
-    <row r="811" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E811" s="8"/>
       <c r="G811" s="9"/>
     </row>
-    <row r="812" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E812" s="8"/>
       <c r="G812" s="9"/>
     </row>
-    <row r="813" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E813" s="8"/>
       <c r="G813" s="9"/>
     </row>
-    <row r="814" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E814" s="8"/>
       <c r="G814" s="9"/>
     </row>
-    <row r="815" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E815" s="8"/>
       <c r="G815" s="9"/>
     </row>
-    <row r="816" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E816" s="8"/>
       <c r="G816" s="9"/>
     </row>
-    <row r="817" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E817" s="8"/>
       <c r="G817" s="9"/>
     </row>
-    <row r="818" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E818" s="8"/>
       <c r="G818" s="9"/>
     </row>
-    <row r="819" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E819" s="8"/>
       <c r="G819" s="9"/>
     </row>
-    <row r="820" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E820" s="8"/>
       <c r="G820" s="9"/>
     </row>
-    <row r="821" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E821" s="8"/>
       <c r="G821" s="9"/>
     </row>
-    <row r="822" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E822" s="8"/>
       <c r="G822" s="9"/>
     </row>
-    <row r="823" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E823" s="8"/>
       <c r="G823" s="9"/>
     </row>
-    <row r="824" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E824" s="8"/>
       <c r="G824" s="9"/>
     </row>
-    <row r="825" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E825" s="8"/>
       <c r="G825" s="9"/>
     </row>
-    <row r="826" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E826" s="8"/>
       <c r="G826" s="9"/>
     </row>
-    <row r="827" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E827" s="8"/>
       <c r="G827" s="9"/>
     </row>
-    <row r="828" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E828" s="8"/>
       <c r="G828" s="9"/>
     </row>
-    <row r="829" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E829" s="8"/>
       <c r="G829" s="9"/>
     </row>
-    <row r="830" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E830" s="8"/>
       <c r="G830" s="9"/>
     </row>
-    <row r="831" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E831" s="8"/>
       <c r="G831" s="9"/>
     </row>
-    <row r="832" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E832" s="8"/>
       <c r="G832" s="9"/>
     </row>
-    <row r="833" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E833" s="8"/>
       <c r="G833" s="9"/>
     </row>
-    <row r="834" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E834" s="8"/>
       <c r="G834" s="9"/>
     </row>
-    <row r="835" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E835" s="8"/>
       <c r="G835" s="9"/>
     </row>
-    <row r="836" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E836" s="8"/>
       <c r="G836" s="9"/>
     </row>
-    <row r="837" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E837" s="8"/>
       <c r="G837" s="9"/>
     </row>
-    <row r="838" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E838" s="8"/>
       <c r="G838" s="9"/>
     </row>
-    <row r="839" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E839" s="8"/>
       <c r="G839" s="9"/>
     </row>
-    <row r="840" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E840" s="8"/>
       <c r="G840" s="9"/>
     </row>
-    <row r="841" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E841" s="8"/>
       <c r="G841" s="9"/>
     </row>
-    <row r="842" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E842" s="8"/>
       <c r="G842" s="9"/>
     </row>
-    <row r="843" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E843" s="8"/>
       <c r="G843" s="9"/>
     </row>
-    <row r="844" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E844" s="8"/>
       <c r="G844" s="9"/>
     </row>
-    <row r="845" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E845" s="8"/>
       <c r="G845" s="9"/>
     </row>
-    <row r="846" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E846" s="8"/>
       <c r="G846" s="9"/>
     </row>
-    <row r="847" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E847" s="8"/>
       <c r="G847" s="9"/>
     </row>
-    <row r="848" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E848" s="8"/>
       <c r="G848" s="9"/>
     </row>
-    <row r="849" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E849" s="8"/>
       <c r="G849" s="9"/>
     </row>
-    <row r="850" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E850" s="8"/>
       <c r="G850" s="9"/>
     </row>
-    <row r="851" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E851" s="8"/>
       <c r="G851" s="9"/>
     </row>
-    <row r="852" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E852" s="8"/>
       <c r="G852" s="9"/>
     </row>
-    <row r="853" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E853" s="8"/>
       <c r="G853" s="9"/>
     </row>
-    <row r="854" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E854" s="8"/>
       <c r="G854" s="9"/>
     </row>
-    <row r="855" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E855" s="8"/>
       <c r="G855" s="9"/>
     </row>
-    <row r="856" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E856" s="8"/>
       <c r="G856" s="9"/>
     </row>
-    <row r="857" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E857" s="8"/>
       <c r="G857" s="9"/>
     </row>
-    <row r="858" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E858" s="8"/>
       <c r="G858" s="9"/>
     </row>
-    <row r="859" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E859" s="8"/>
       <c r="G859" s="9"/>
     </row>
-    <row r="860" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E860" s="8"/>
       <c r="G860" s="9"/>
     </row>
-    <row r="861" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E861" s="8"/>
       <c r="G861" s="9"/>
     </row>
-    <row r="862" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E862" s="8"/>
       <c r="G862" s="9"/>
     </row>
-    <row r="863" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E863" s="8"/>
       <c r="G863" s="9"/>
     </row>
-    <row r="864" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E864" s="8"/>
       <c r="G864" s="9"/>
     </row>
-    <row r="865" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E865" s="8"/>
       <c r="G865" s="9"/>
     </row>
-    <row r="866" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E866" s="8"/>
       <c r="G866" s="9"/>
     </row>
-    <row r="867" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E867" s="8"/>
       <c r="G867" s="9"/>
     </row>
-    <row r="868" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E868" s="8"/>
       <c r="G868" s="9"/>
     </row>
-    <row r="869" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E869" s="8"/>
       <c r="G869" s="9"/>
     </row>
-    <row r="870" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E870" s="8"/>
       <c r="G870" s="9"/>
     </row>
-    <row r="871" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E871" s="8"/>
       <c r="G871" s="9"/>
     </row>
-    <row r="872" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E872" s="8"/>
       <c r="G872" s="9"/>
     </row>
-    <row r="873" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E873" s="8"/>
       <c r="G873" s="9"/>
     </row>
-    <row r="874" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E874" s="8"/>
       <c r="G874" s="9"/>
     </row>
-    <row r="875" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E875" s="8"/>
       <c r="G875" s="9"/>
     </row>
-    <row r="876" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E876" s="8"/>
       <c r="G876" s="9"/>
     </row>
-    <row r="877" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E877" s="8"/>
       <c r="G877" s="9"/>
     </row>
-    <row r="878" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E878" s="8"/>
       <c r="G878" s="9"/>
     </row>
-    <row r="879" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E879" s="8"/>
       <c r="G879" s="9"/>
     </row>
-    <row r="880" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E880" s="8"/>
       <c r="G880" s="9"/>
     </row>
-    <row r="881" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E881" s="8"/>
       <c r="G881" s="9"/>
     </row>
-    <row r="882" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E882" s="8"/>
       <c r="G882" s="9"/>
     </row>
-    <row r="883" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E883" s="8"/>
       <c r="G883" s="9"/>
     </row>
-    <row r="884" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E884" s="8"/>
       <c r="G884" s="9"/>
     </row>
-    <row r="885" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E885" s="8"/>
       <c r="G885" s="9"/>
     </row>
-    <row r="886" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E886" s="8"/>
       <c r="G886" s="9"/>
     </row>
-    <row r="887" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E887" s="8"/>
       <c r="G887" s="9"/>
     </row>
-    <row r="888" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E888" s="8"/>
       <c r="G888" s="9"/>
     </row>
-    <row r="889" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E889" s="8"/>
       <c r="G889" s="9"/>
     </row>
-    <row r="890" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E890" s="8"/>
       <c r="G890" s="9"/>
     </row>
-    <row r="891" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E891" s="8"/>
       <c r="G891" s="9"/>
     </row>
-    <row r="892" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E892" s="8"/>
       <c r="G892" s="9"/>
     </row>
-    <row r="893" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E893" s="8"/>
       <c r="G893" s="9"/>
     </row>
-    <row r="894" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E894" s="8"/>
       <c r="G894" s="9"/>
     </row>
-    <row r="895" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E895" s="8"/>
       <c r="G895" s="9"/>
     </row>
-    <row r="896" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E896" s="8"/>
       <c r="G896" s="9"/>
     </row>
-    <row r="897" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E897" s="8"/>
       <c r="G897" s="9"/>
     </row>
-    <row r="898" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E898" s="8"/>
       <c r="G898" s="9"/>
     </row>
-    <row r="899" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E899" s="8"/>
       <c r="G899" s="9"/>
     </row>
-    <row r="900" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E900" s="8"/>
       <c r="G900" s="9"/>
     </row>
-    <row r="901" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E901" s="8"/>
       <c r="G901" s="9"/>
     </row>
-    <row r="902" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E902" s="8"/>
       <c r="G902" s="9"/>
     </row>
-    <row r="903" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E903" s="8"/>
       <c r="G903" s="9"/>
     </row>
-    <row r="904" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E904" s="8"/>
       <c r="G904" s="9"/>
     </row>
-    <row r="905" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E905" s="8"/>
       <c r="G905" s="9"/>
     </row>
-    <row r="906" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E906" s="8"/>
       <c r="G906" s="9"/>
     </row>
-    <row r="907" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E907" s="8"/>
       <c r="G907" s="9"/>
     </row>
-    <row r="908" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E908" s="8"/>
       <c r="G908" s="9"/>
     </row>
-    <row r="909" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E909" s="8"/>
       <c r="G909" s="9"/>
     </row>
-    <row r="910" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E910" s="8"/>
       <c r="G910" s="9"/>
     </row>
-    <row r="911" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E911" s="8"/>
       <c r="G911" s="9"/>
     </row>
-    <row r="912" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E912" s="8"/>
       <c r="G912" s="9"/>
     </row>
-    <row r="913" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E913" s="8"/>
       <c r="G913" s="9"/>
     </row>
-    <row r="914" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E914" s="8"/>
       <c r="G914" s="9"/>
     </row>
-    <row r="915" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E915" s="8"/>
       <c r="G915" s="9"/>
     </row>
-    <row r="916" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E916" s="8"/>
       <c r="G916" s="9"/>
     </row>
-    <row r="917" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E917" s="8"/>
       <c r="G917" s="9"/>
     </row>
-    <row r="918" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E918" s="8"/>
       <c r="G918" s="9"/>
     </row>
-    <row r="919" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E919" s="8"/>
       <c r="G919" s="9"/>
     </row>
-    <row r="920" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E920" s="8"/>
       <c r="G920" s="9"/>
     </row>
-    <row r="921" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E921" s="8"/>
       <c r="G921" s="9"/>
     </row>
-    <row r="922" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E922" s="8"/>
       <c r="G922" s="9"/>
     </row>
-    <row r="923" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E923" s="8"/>
       <c r="G923" s="9"/>
     </row>
-    <row r="924" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E924" s="8"/>
       <c r="G924" s="9"/>
     </row>
-    <row r="925" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E925" s="8"/>
       <c r="G925" s="9"/>
     </row>
-    <row r="926" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E926" s="8"/>
       <c r="G926" s="9"/>
     </row>
-    <row r="927" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E927" s="8"/>
       <c r="G927" s="9"/>
     </row>
-    <row r="928" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E928" s="8"/>
       <c r="G928" s="9"/>
     </row>
-    <row r="929" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E929" s="8"/>
       <c r="G929" s="9"/>
     </row>
-    <row r="930" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E930" s="8"/>
       <c r="G930" s="9"/>
     </row>
-    <row r="931" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E931" s="8"/>
       <c r="G931" s="9"/>
     </row>
-    <row r="932" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E932" s="8"/>
       <c r="G932" s="9"/>
     </row>
-    <row r="933" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E933" s="8"/>
       <c r="G933" s="9"/>
     </row>
-    <row r="934" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E934" s="8"/>
       <c r="G934" s="9"/>
     </row>
-    <row r="935" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E935" s="8"/>
       <c r="G935" s="9"/>
     </row>
-    <row r="936" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E936" s="8"/>
       <c r="G936" s="9"/>
     </row>
-    <row r="937" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E937" s="8"/>
       <c r="G937" s="9"/>
     </row>
-    <row r="938" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E938" s="8"/>
       <c r="G938" s="9"/>
     </row>
-    <row r="939" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E939" s="8"/>
       <c r="G939" s="9"/>
     </row>
-    <row r="940" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E940" s="8"/>
       <c r="G940" s="9"/>
     </row>
-    <row r="941" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E941" s="8"/>
       <c r="G941" s="9"/>
     </row>
-    <row r="942" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E942" s="8"/>
       <c r="G942" s="9"/>
     </row>
-    <row r="943" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E943" s="8"/>
       <c r="G943" s="9"/>
     </row>
-    <row r="944" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E944" s="8"/>
       <c r="G944" s="9"/>
     </row>
-    <row r="945" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E945" s="8"/>
       <c r="G945" s="9"/>
     </row>
-    <row r="946" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E946" s="8"/>
       <c r="G946" s="9"/>
     </row>
-    <row r="947" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E947" s="8"/>
       <c r="G947" s="9"/>
     </row>
-    <row r="948" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E948" s="8"/>
       <c r="G948" s="9"/>
     </row>
-    <row r="949" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E949" s="8"/>
       <c r="G949" s="9"/>
     </row>
-    <row r="950" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E950" s="8"/>
       <c r="G950" s="9"/>
     </row>
-    <row r="951" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E951" s="8"/>
       <c r="G951" s="9"/>
     </row>
-    <row r="952" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E952" s="8"/>
       <c r="G952" s="9"/>
     </row>
-    <row r="953" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E953" s="8"/>
       <c r="G953" s="9"/>
     </row>
-    <row r="954" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E954" s="8"/>
       <c r="G954" s="9"/>
     </row>
-    <row r="955" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E955" s="8"/>
       <c r="G955" s="9"/>
     </row>
-    <row r="956" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E956" s="8"/>
       <c r="G956" s="9"/>
     </row>
-    <row r="957" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E957" s="8"/>
       <c r="G957" s="9"/>
     </row>
-    <row r="958" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E958" s="8"/>
       <c r="G958" s="9"/>
     </row>
-    <row r="959" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E959" s="8"/>
       <c r="G959" s="9"/>
     </row>
-    <row r="960" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E960" s="8"/>
       <c r="G960" s="9"/>
     </row>
-    <row r="961" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E961" s="8"/>
       <c r="G961" s="9"/>
     </row>
-    <row r="962" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E962" s="8"/>
       <c r="G962" s="9"/>
     </row>
-    <row r="963" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E963" s="8"/>
       <c r="G963" s="9"/>
     </row>
-    <row r="964" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E964" s="8"/>
       <c r="G964" s="9"/>
     </row>
-    <row r="965" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E965" s="8"/>
       <c r="G965" s="9"/>
     </row>
-    <row r="966" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E966" s="8"/>
       <c r="G966" s="9"/>
     </row>
-    <row r="967" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E967" s="8"/>
       <c r="G967" s="9"/>
     </row>
-    <row r="968" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E968" s="8"/>
       <c r="G968" s="9"/>
     </row>
-    <row r="969" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E969" s="8"/>
       <c r="G969" s="9"/>
     </row>
-    <row r="970" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E970" s="8"/>
       <c r="G970" s="9"/>
     </row>
-    <row r="971" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E971" s="8"/>
       <c r="G971" s="9"/>
     </row>
-    <row r="972" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E972" s="8"/>
       <c r="G972" s="9"/>
     </row>
-    <row r="973" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E973" s="8"/>
       <c r="G973" s="9"/>
     </row>
-    <row r="974" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E974" s="8"/>
       <c r="G974" s="9"/>
     </row>
-    <row r="975" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E975" s="8"/>
       <c r="G975" s="9"/>
     </row>
-    <row r="976" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E976" s="8"/>
       <c r="G976" s="9"/>
     </row>
-    <row r="977" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E977" s="8"/>
       <c r="G977" s="9"/>
     </row>
-    <row r="978" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E978" s="8"/>
       <c r="G978" s="9"/>
     </row>
-    <row r="979" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E979" s="8"/>
       <c r="G979" s="9"/>
     </row>
-    <row r="980" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E980" s="8"/>
       <c r="G980" s="9"/>
     </row>
-    <row r="981" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E981" s="8"/>
       <c r="G981" s="9"/>
     </row>
-    <row r="982" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E982" s="8"/>
       <c r="G982" s="9"/>
     </row>
-    <row r="983" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E983" s="8"/>
       <c r="G983" s="9"/>
     </row>
-    <row r="984" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E984" s="8"/>
       <c r="G984" s="9"/>
     </row>
-    <row r="985" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E985" s="8"/>
       <c r="G985" s="9"/>
     </row>
-    <row r="986" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E986" s="8"/>
       <c r="G986" s="9"/>
     </row>
-    <row r="987" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E987" s="8"/>
       <c r="G987" s="9"/>
     </row>
-    <row r="988" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E988" s="8"/>
       <c r="G988" s="9"/>
     </row>
-    <row r="989" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E989" s="8"/>
       <c r="G989" s="9"/>
     </row>
-    <row r="990" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E990" s="8"/>
       <c r="G990" s="9"/>
     </row>
-    <row r="991" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E991" s="8"/>
       <c r="G991" s="9"/>
     </row>
-    <row r="992" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E992" s="8"/>
       <c r="G992" s="9"/>
     </row>
-    <row r="993" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E993" s="8"/>
       <c r="G993" s="9"/>
     </row>
-    <row r="994" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E994" s="8"/>
       <c r="G994" s="9"/>
     </row>
-    <row r="995" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E995" s="8"/>
       <c r="G995" s="9"/>
     </row>
-    <row r="996" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E996" s="8"/>
       <c r="G996" s="9"/>
     </row>
-    <row r="997" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E997" s="8"/>
       <c r="G997" s="9"/>
     </row>
-    <row r="998" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E998" s="8"/>
       <c r="G998" s="9"/>
     </row>
-    <row r="999" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E999" s="8"/>
       <c r="G999" s="9"/>
     </row>
-    <row r="1000" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1000" s="8"/>
       <c r="G1000" s="9"/>
     </row>
-    <row r="1001" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1001" s="8"/>
       <c r="G1001" s="9"/>
     </row>
-    <row r="1002" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1002" s="8"/>
       <c r="G1002" s="9"/>
     </row>
-    <row r="1003" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1003" s="8"/>
       <c r="G1003" s="9"/>
     </row>
-    <row r="1004" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1004" s="8"/>
       <c r="G1004" s="9"/>
     </row>
-    <row r="1005" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1005" s="8"/>
       <c r="G1005" s="9"/>
     </row>
-    <row r="1006" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1006" s="8"/>
       <c r="G1006" s="9"/>
     </row>
-    <row r="1007" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1007" s="8"/>
       <c r="G1007" s="9"/>
     </row>
-    <row r="1008" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1008" s="8"/>
       <c r="G1008" s="9"/>
     </row>
-    <row r="1009" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1009" s="8"/>
       <c r="G1009" s="9"/>
     </row>
-    <row r="1010" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1010" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1010" s="8"/>
       <c r="G1010" s="9"/>
     </row>
-    <row r="1011" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1011" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1011" s="8"/>
       <c r="G1011" s="9"/>
     </row>
-    <row r="1012" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1012" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1012" s="8"/>
       <c r="G1012" s="9"/>
     </row>
-    <row r="1013" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1013" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1013" s="8"/>
       <c r="G1013" s="9"/>
     </row>
-    <row r="1014" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1014" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1014" s="8"/>
       <c r="G1014" s="9"/>
     </row>
-    <row r="1015" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1015" s="8"/>
       <c r="G1015" s="9"/>
     </row>
-    <row r="1016" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1016" s="8"/>
       <c r="G1016" s="9"/>
     </row>
-    <row r="1017" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1017" s="8"/>
       <c r="G1017" s="9"/>
     </row>
-    <row r="1018" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1018" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1018" s="8"/>
       <c r="G1018" s="9"/>
     </row>
-    <row r="1019" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1019" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1019" s="8"/>
       <c r="G1019" s="9"/>
     </row>
-    <row r="1020" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1020" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1020" s="8"/>
       <c r="G1020" s="9"/>
     </row>
